--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata/CoT_mistral_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata/CoT_mistral_wikidata_results_analysis.xlsx
@@ -1,42 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-dbpedia-wikidata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50CFB96-9461-4774-8EA8-50949BA4C56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$101</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="464">
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>SPARQL Query (Generated)</t>
-  </si>
-  <si>
-    <t>Gold Label Query</t>
-  </si>
-  <si>
-    <t>Gold Label Answers</t>
-  </si>
-  <si>
-    <t>Query Answers</t>
-  </si>
-  <si>
-    <t>Error Message</t>
+    <t>SPARQL_Query_Generated</t>
+  </si>
+  <si>
+    <t>Gold_Label_Query</t>
+  </si>
+  <si>
+    <t>Query_Answers_Generated</t>
+  </si>
+  <si>
+    <t>Gold_Label_Answers</t>
+  </si>
+  <si>
+    <t>Error_Message</t>
   </si>
   <si>
     <t>Correct</t>
   </si>
   <si>
+    <t>Error Category</t>
+  </si>
+  <si>
     <t>Who is the founder of Penguin Books?</t>
   </si>
   <si>
@@ -349,67 +361,25 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q40984 wdt:P178 ?uri. }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wd:Q16297 ; wdt:P161 ?uri . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q38111 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date. }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34851 ; wdt:P161 wd:Q151973 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
+    <t>SELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q38111 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date. }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34851 ; wdt:P161 wd:Q151973 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?budget WHERE { wd:Q2608065 wdt:P2769 ?budget . }</t>
@@ -424,34 +394,13 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { VALUES ?bandleader { wd:Q5280538 wd:Q806349 } VALUES ?trumpet { wd:Q119621 wd:Q8338 } ?uri wdt:P106 ?bandleader ; wdt:P1303 ?trumpet . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?value WHERE { wd:Q1207989 wdt:P2048 ?value . }</t>
@@ -466,14 +415,7 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?business WHERE { ?business wdt:P127 wd:Q22686 . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?spouse WHERE { ?spouse wdt:P26 wd:Q37079. }</t>
+    <t>SELECT DISTINCT ?spouse WHERE { ?spouse wdt:P26 wd:Q37079. }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wd:Q5401 wdt:P1082 ?population. }</t>
@@ -494,99 +436,43 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x } LIMIT 1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 . ?uri wdt:P448 wd:Q177477 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 . ?uri wdt:P448 wd:Q177477 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?developer WHERE { wd:Q131007 wdt:P178 ?developer. }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 wdt:P69 ?university . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P161 wd:Q485310 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P161 wd:Q485310 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P31 wd:Q6256 . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }</t>
+    <t>SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P177 ?uri . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q649 ; wdt:P31 wd:Q10843402 . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q649 ; wdt:P31 wd:Q10843402 . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?movie WHERE { ?movie wdt:P31 wd:Q11424 . ?movie wdt:P161 wd:Q103894 . ?movie wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502. ?uri wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502. ?uri wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop . }</t>
@@ -610,14 +496,7 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?author WHERE { wd:Q1163227 wdt:P50 ?author }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }</t>
+    <t>SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wd:Q40912 wdt:P19 ?place . }</t>
@@ -629,37 +508,16 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q8704 . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q312&gt; &lt;http://www.wikidata.org/prop/direct/P2295&gt; ?ni. }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q312&gt; &lt;http://www.wikidata.org/prop/direct/P2295&gt; ?ni. }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q91 wdt:P20 ?uri. }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?capital WHERE { VALUES (?himalayas) { (wd:Q105981852) (wd:Q26235529) (wd:Q5451) } ?country wdt:P17 ?himalayas . ?country wdt:P36 ?capital . }</t>
+    <t>SELECT DISTINCT ?capital WHERE { VALUES (?himalayas) { (wd:Q105981852) (wd:Q26235529) (wd:Q5451) } ?country wdt:P17 ?himalayas . ?country wdt:P36 ?capital . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q6386177 wdt:P17 ?country. }</t>
@@ -668,24 +526,10 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q41421 wdt:P2048 ?height . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 . }</t>
+    <t>SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq . }</t>
@@ -694,37 +538,16 @@
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650. }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 wdt:P50 ?person . ?person wdt:P135 ?uri . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?architect WHERE { wd:Q125006 wdt:P84 ?architect. }</t>
@@ -745,77 +568,28 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q213 wdt:P38 ?currency }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 wd:Q64 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge wdt:P177 ?seine . FILTER(?seine IN (wd:Q1142326, wd:Q1471)) }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT ?musician WHERE { ?musician wdt:P106 wd:Q639669 . ?book wdt:P50 ?musician . ?book wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?book)) LIMIT 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }</t>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 wd:Q64 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge wdt:P177 ?seine . FILTER(?seine IN (wd:Q1142326, wd:Q1471)) }</t>
+  </si>
+  <si>
+    <t>SELECT ?musician WHERE { ?musician wdt:P106 wd:Q639669 . ?book wdt:P50 ?musician . ?book wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?book)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer. }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { VALUES ?bandleader { wd:Q5280538 wd:Q806349 } VALUES ?trumpet { wd:Q119621 wd:Q8338 } ?uri wdt:P106 ?bandleader ; wdt:P1303 ?trumpet . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 . ?uri wdt:P2048 ?n . FILTER (?n &gt; 2.0) }</t>
+    <t>SELECT DISTINCT ?uri WHERE { VALUES ?bandleader { wd:Q5280538 wd:Q806349 } VALUES ?trumpet { wd:Q119621 wd:Q8338 } ?uri wdt:P106 ?bandleader ; wdt:P1303 ?trumpet . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 . ?uri wdt:P2048 ?n . FILTER (?n &gt; 2.0) }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q40523 . ?film wdt:P161 wd:Q48410 . }</t>
@@ -830,24 +604,10 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184 } UNION { ?uri wdt:P27 wd:Q159 } UNION { ?uri wdt:P27 wd:Q15180 } }</t>
+    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184 } UNION { ?uri wdt:P27 wd:Q159 } UNION { ?uri wdt:P27 wd:Q15180 } }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }</t>
@@ -865,47 +625,19 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?tarea WHERE { wd:Q1198 wdt:P2046 ?tarea }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?number WHERE { VALUES ?entity { wd:Q70096636 wd:Q37156 } ?entity wdt:P1128 ?number. }</t>
+    <t>SELECT DISTINCT ?number WHERE { VALUES ?entity { wd:Q70096636 wd:Q37156 } ?entity wdt:P1128 ?number. }</t>
   </si>
   <si>
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q104123 wdt:P2769 ?n . }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }</t>
+    <t>SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }</t>
   </si>
   <si>
     <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q6256 ; wdt:P2046 ?n . } ORDER BY DESC(?n) LIMIT 1</t>
@@ -914,14 +646,7 @@
     <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?AlmaMater WHERE { wd:Q567 wdt:P69 ?AlmaMater. }</t>
   </si>
   <si>
-    <t xml:space="preserve">
-PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
-PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
-PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
-PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
-SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri. }</t>
+    <t>SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri. }</t>
   </si>
   <si>
     <t>SELECT ?o1 WHERE { &lt;http://www.wikidata.org/entity/Q1336200&gt;  &lt;http://www.wikidata.org/prop/direct/P112&gt;  ?o1 .  }</t>
@@ -1230,12 +955,165 @@
     <t>['http://www.wikidata.org/entity/Q103474', 'http://www.wikidata.org/entity/Q105702', 'http://www.wikidata.org/entity/Q108297', 'http://www.wikidata.org/entity/Q110624336', 'http://www.wikidata.org/entity/Q1434632', 'http://www.wikidata.org/entity/Q181086', 'http://www.wikidata.org/entity/Q186341', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q2164458', 'http://www.wikidata.org/entity/Q243439', 'http://www.wikidata.org/entity/Q426628', 'http://www.wikidata.org/entity/Q471716', 'http://www.wikidata.org/entity/Q536560', 'http://www.wikidata.org/entity/Q592072', 'http://www.wikidata.org/entity/Q747936', 'http://www.wikidata.org/entity/Q929157', 'http://www.wikidata.org/entity/Q936477']</t>
   </si>
   <si>
+    <t>['No answer']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q246125']</t>
+  </si>
+  <si>
+    <t>['Query failed']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q116281', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1320797', 'http://www.wikidata.org/entity/Q1338682', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q1720634', 'http://www.wikidata.org/entity/Q18211660', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q234114', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q238168', 'http://www.wikidata.org/entity/Q2439878', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q2933924', 'http://www.wikidata.org/entity/Q2965115', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q3177047', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q3300864', 'http://www.wikidata.org/entity/Q3441429', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q3559413', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q378538', 'http://www.wikidata.org/entity/Q3852420', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q42329064', 'http://www.wikidata.org/entity/Q442025', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q504028', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q5407123', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q6308308', 'http://www.wikidata.org/entity/Q6811353']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q898618']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106435366', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
+  </si>
+  <si>
+    <t>['101']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q3506451']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q115934307', 'http://www.wikidata.org/entity/Q123134707', 'http://www.wikidata.org/entity/Q123352703', 'http://www.wikidata.org/entity/Q1262898', 'http://www.wikidata.org/entity/Q18011281', 'http://www.wikidata.org/entity/Q20714076', 'http://www.wikidata.org/entity/Q286493', 'http://www.wikidata.org/entity/Q54869832', 'http://www.wikidata.org/entity/Q60789091', 'http://www.wikidata.org/entity/Q7847774', 'http://www.wikidata.org/entity/Q844324']</t>
+  </si>
+  <si>
+    <t>['5348554000']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q9215']</t>
+  </si>
+  <si>
+    <t>['1735-10-30T00:00:00Z']</t>
+  </si>
+  <si>
+    <t>['447706209']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q39099']</t>
+  </si>
+  <si>
+    <t>['1616-05-03T00:00:00Z']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q178824']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q212862']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q6074']</t>
+  </si>
+  <si>
+    <t>['9606916']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['147']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q851']</t>
+  </si>
+  <si>
+    <t>['180']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q210669']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q138578']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q2590944']</t>
+  </si>
+  <si>
+    <t>['96995000000']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q4799733']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q16']</t>
+  </si>
+  <si>
+    <t>['198']</t>
+  </si>
+  <si>
+    <t>['38274618']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata.org/entity/Q113499458', 'http://www.wikidata.org/entity/Q1135034', 'http://www.wikidata.org/entity/Q11354348', 'http://www.wikidata.org/entity/Q113549137', 'http://www.wikidata.org/entity/Q113576165', 'http://www.wikidata.org/entity/Q113581609', 'http://www.wikidata.org/entity/Q113627236', 'http://www.wikidata.org/entity/Q113631347', 'http://www.wikidata.org/entity/Q113631375', 'http://www.wikidata.org/entity/Q113631508', 'http://www.wikidata.org/entity/Q113631563', 'http://www.wikidata.org/entity/Q113631569', 'http://www.wikidata.org/entity/Q113674106', 'http://www.wikidata.org/entity/Q11371391', 'http://www.wikidata.org/entity/Q113714633', 'http://www.wikidata.org/entity/Q11387117', 'http://www.wikidata.org/entity/Q113903854', 'http://www.wikidata.org/entity/Q11391277', 'http://www.wikidata.org/entity/Q1139591', 'http://www.wikidata.org/entity/Q11409712', 'http://www.wikidata.org/entity/Q114315605', 'http://www.wikidata.org/entity/Q114658295', 'http://www.wikidata.org/entity/Q1147008', 'http://www.wikidata.org/entity/Q114779611', 'http://www.wikidata.org/entity/Q114780741', 'http://www.wikidata.org/entity/Q114781351', 'http://www.wikidata.org/entity/Q114840373', 'http://www.wikidata.org/entity/Q114863314', 'http://www.wikidata.org/entity/Q115152362', 'http://www.wikidata.org/entity/Q115209188', 'http://www.wikidata.org/entity/Q115214299', 'http://www.wikidata.org/entity/Q115259173', 'http://www.wikidata.org/entity/Q115294651', 'http://www.wikidata.org/entity/Q115327380', 'http://www.wikidata.org/entity/Q1153848', 'http://www.wikidata.org/entity/Q11545488', 'http://www.wikidata.org/entity/Q115516436', 'http://www.wikidata.org/entity/Q115526578', 'http://www.wikidata.org/entity/Q115624997', 'http://www.wikidata.org/entity/Q115628690', 'http://www.wikidata.org/entity/Q11567159', 'http://www.wikidata.org/entity/Q11590237', 'http://www.wikidata.org/entity/Q115937074', 'http://www.wikidata.org/entity/Q11606287', 'http://www.wikidata.org/entity/Q116113833', 'http://www.wikidata.org/entity/Q116349234', 'http://www.wikidata.org/entity/Q116767714', 'http://www.wikidata.org/entity/Q116790237', 'http://www.wikidata.org/entity/Q116846825', 'http://www.wikidata.org/entity/Q116858640', 'http://www.wikidata.org/entity/Q116938985', 'http://www.wikidata.org/entity/Q11695705', 'http://www.wikidata.org/entity/Q11695707', 'http://www.wikidata.org/entity/Q11695708', 'http://www.wikidata.org/entity/Q11695711', 'http://www.wikidata.org/entity/Q11695713', 'http://www.wikidata.org/entity/Q11695714', 'http://www.wikidata.org/entity/Q11695716', 'http://www.wikidata.org/entity/Q11695717', 'http://www.wikidata.org/entity/Q11695718', 'http://www.wikidata.org/entity/Q11695721', 'http://www.wikidata.org/entity/Q11695722', 'http://www.wikidata.org/entity/Q11695723', 'http://www.wikidata.org/entity/Q116973585', 'http://www.wikidata.org/entity/Q116980492', 'http://www.wikidata.org/entity/Q117035968', 'http://www.wikidata.org/entity/Q11703716', 'http://www.wikidata.org/entity/Q117040282', 'http://www.wikidata.org/entity/Q11706236', 'http://www.wikidata.org/entity/Q1170632', 'http://www.wikidata.org/entity/Q117361394', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117455751', 'http://www.wikidata.org/entity/Q117587270', 'http://www.wikidata.org/entity/Q117711867', 'http://www.wikidata.org/entity/Q11783773', 'http://www.wikidata.org/entity/Q11783808', 'http://www.wikidata.org/entity/Q117844480', 'http://www.wikidata.org/entity/Q11789695', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q11789707', 'http://www.wikidata.org/entity/Q11802972', 'http://www.wikidata.org/entity/Q118224784', 'http://www.wikidata.org/entity/Q118288532', 'http://www.wikidata.org/entity/Q118314773', 'http://www.wikidata.org/entity/Q118330188', 'http://www.wikidata.org/entity/Q118369207', 'http://www.wikidata.org/entity/Q118744251', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118947258', 'http://www.wikidata.org/entity/Q119105010', 'http://www.wikidata.org/entity/Q11919090', 'http://www.wikidata.org/entity/Q119241124', 'http://www.wikidata.org/entity/Q119243817', 'http://www.wikidata.org/entity/Q119285617', 'http://www.wikidata.org/entity/Q119348301', 'http://www.wikidata.org/entity/Q119397277', 'http://www.wikidata.org/entity/Q1194059', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q119806244', 'http://www.wikidata.org/entity/Q119853995', 'http://www.wikidata.org/entity/Q120068971', 'http://www.wikidata.org/entity/Q120146391', 'http://www.wikidata.org/entity/Q120403912', 'http://www.wikidata.org/entity/Q120486552', 'http://www.wikidata.org/entity/Q12060958', 'http://www.wikidata.org/entity/Q120823815', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q12090941', 'http://www.wikidata.org/entity/Q1209940', 'http://www.wikidata.org/entity/Q12100125', 'http://www.wikidata.org/entity/Q12100126', 'http://www.wikidata.org/entity/Q12100128', 'http://www.wikidata.org/entity/Q12100132', 'http://www.wikidata.org/entity/Q12100138', 'http://www.wikidata.org/entity/Q12100141', 'http://www.wikidata.org/entity/Q12100152', 'http://www.wikidata.org/entity/Q12100160', 'http://www.wikidata.org/entity/Q12131090', 'http://www.wikidata.org/entity/Q121322780', 'http://www.wikidata.org/entity/Q121393', 'http://www.wikidata.org/entity/Q12149731', 'http://www.wikidata.org/entity/Q12174361', 'http://www.wikidata.org/entity/Q121759535', 'http://www.wikidata.org/entity/Q121852183', 'http://www.wikidata.org/entity/Q121864546', 'http://www.wikidata.org/entity/Q121991381', 'http://www.wikidata.org/entity/Q122057715', 'http://www.wikidata.org/entity/Q122058042', 'http://www.wikidata.org/entity/Q122144115', 'http://www.wikidata.org/entity/Q122199376', 'http://www.wikidata.org/entity/Q122341064', 'http://www.wikidata.org/entity/Q122460010', 'http://www.wikidata.org/entity/Q122495885', 'http://www.wikidata.org/entity/Q1226845', 'http://www.wikidata.org/entity/Q122767100', 'http://www.wikidata.org/entity/Q12284238', 'http://www.wikidata.org/entity/Q12286265', 'http://www.wikidata.org/entity/Q12286390', 'http://www.wikidata.org/entity/Q12289674', 'http://www.wikidata.org/entity/Q12292151', 'http://www.wikidata.org/entity/Q12293119', 'http://www.wikidata.org/entity/Q12293243', 'http://www.wikidata.org/entity/Q12299913', 'http://www.wikidata.org/entity/Q123111964', 'http://www.wikidata.org/entity/Q1231872', 'http://www.wikidata.org/entity/Q123253535', 'http://www.wikidata.org/entity/Q123265528', 'http://www.wikidata.org/entity/Q123450314', 'http://www.wikidata.org/entity/Q123515600', 'http://www.wikidata.org/entity/Q12353618', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q123757853', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q12407917', 'http://www.wikidata.org/entity/Q12407923', 'http://www.wikidata.org/entity/Q1241858', 'http://www.wikidata.org/entity/Q12422844', 'http://www.wikidata.org/entity/Q124250314', 'http://www.wikidata.org/entity/Q124250951', 'http://www.wikidata.org/entity/Q124255532', 'http://www.wikidata.org/entity/Q124318023', 'http://www.wikidata.org/entity/Q124352953', 'http://www.wikidata.org/entity/Q124367000', 'http://www.wikidata.org/entity/Q12438967', 'http://www.wikidata.org/entity/Q124408550', 'http://www.wikidata.org/entity/Q12441237', 'http://www.wikidata.org/entity/Q124498473', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q124568688', 'http://www.wikidata.org/entity/Q124747000', 'http://www.wikidata.org/entity/Q124799998', 'http://www.wikidata.org/entity/Q124830290', 'http://www.wikidata.org/entity/Q124854084', 'http://www.wikidata.org/entity/Q12513670', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q1252585', 'http://www.wikidata.org/entity/Q1252596', 'http://www.wikidata.org/entity/Q125505711', 'http://www.wikidata.org/entity/Q1255099', 'http://www.wikidata.org/entity/Q125524227', 'http://www.wikidata.org/entity/Q125613295', 'http://www.wikidata.org/entity/Q125912847', 'http://www.wikidata.org/entity/Q125928736', 'http://www.wikidata.org/entity/Q12601109', 'http://www.wikidata.org/entity/Q12602481', 'http://www.wikidata.org/entity/Q126083299', 'http://www.wikidata.org/entity/Q126083373', 'http://www.wikidata.org/entity/Q126113071', 'http://www.wikidata.org/entity/Q12614307', 'http://www.wikidata.org/entity/Q12614875', 'http://www.wikidata.org/entity/Q126192995', 'http://www.wikidata.org/entity/Q126260200', 'http://www.wikidata.org/entity/Q12650252', 'http://www.wikidata.org/entity/Q12663498', 'http://www.wikidata.org/entity/Q126708915', 'http://www.wikidata.org/entity/Q126902823', 'http://www.wikidata.org/entity/Q126903060', 'http://www.wikidata.org/entity/Q126910647', 'http://www.wikidata.org/entity/Q126948133', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q1270782', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12719109', 'http://www.wikidata.org/entity/Q127393146', 'http://www.wikidata.org/entity/Q127502506', 'http://www.wikidata.org/entity/Q12750635', 'http://www.wikidata.org/entity/Q127597840', 'http://www.wikidata.org/entity/Q127798249', 'http://www.wikidata.org/entity/Q12787253', 'http://www.wikidata.org/entity/Q12787255', 'http://www.wikidata.org/entity/Q127922454', 'http://www.wikidata.org/entity/Q12803843', 'http://www.wikidata.org/entity/Q12836659', 'http://www.wikidata.org/entity/Q12859165', 'http://www.wikidata.org/entity/Q12864158', 'http://www.wikidata.org/entity/Q1290276', 'http://www.wikidata.org/entity/Q12927731', 'http://www.wikidata.org/entity/Q129726', 'http://www.wikidata.org/entity/Q12986877', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q12989464', 'http://www.wikidata.org/entity/Q13020973', 'http://www.wikidata.org/entity/Q130215597', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237543', 'http://www.wikidata.org/entity/Q130237544', 'http://www.wikidata.org/entity/Q130237545', 'http://www.wikidata.org/entity/Q130237546', 'http://www.wikidata.org/entity/Q130237547', 'http://www.wikidata.org/entity/Q130237548', 'http://www.wikidata.org/entity/Q130237549', 'http://www.wikidata.org/entity/Q130237550', 'http://www.wikidata.org/entity/Q130237552', 'http://www.wikidata.org/entity/Q130237553', 'http://www.wikidata.org/entity/Q130237554', 'http://www.wikidata.org/entity/Q130237555', 'http://www.wikidata.org/entity/Q130237556', 'http://www.wikidata.org/entity/Q130237557', 'http://www.wikidata.org/entity/Q130237558', 'http://www.wikidata.org/entity/Q130237559', 'http://www.wikidata.org/entity/Q130237560', 'http://www.wikidata.org/entity/Q130237561', 'http://www.wikidata.org/entity/Q130237562', 'http://www.wikidata.org/entity/Q130237563', 'http://www.wikidata.org/entity/Q130237564', 'http://www.wikidata.org/entity/Q130237565', 'http://www.wikidata.org/entity/Q130237566', 'http://www.wikidata.org/entity/Q130237567', 'http://www.wikidata.org/entity/Q130237570', 'http://www.wikidata.org/entity/Q130237571', 'http://www.wikidata.org/entity/Q130237572', 'http://www.wikidata.org/entity/Q130237573', 'http://www.wikidata.org/entity/Q130237574', 'http://www.wikidata.org/entity/Q130237575', 'http://www.wikidata.org/entity/Q130237576', 'http://www.wikidata.org/entity/Q130237577', 'http://www.wikidata.org/entity/Q130237578', 'http://www.wikidata.org/entity/Q130237579', 'http://www.wikidata.org/entity/Q130237581', 'http://www.wikidata.org/entity/Q130237582', 'http://www.wikidata.org/entity/Q130237584', 'http://www.wikidata.org/entity/Q130237585', 'http://www.wikidata.org/entity/Q130237587', 'http://www.wikidata.org/entity/Q130237588', 'http://www.wikidata.org/entity/Q130237589', 'http://www.wikidata.org/entity/Q130237591', 'http://www.wikidata.org/entity/Q130237592', 'http://www.wikidata.org/entity/Q130237593', 'http://www.wikidata.org/entity/Q130237594', 'http://www.wikidata.org/entity/Q130237597', 'http://www.wikidata.org/entity/Q130237598', 'http://www.wikidata.org/entity/Q130237599', 'http://www.wikidata.org/entity/Q130237601', 'http://www.wikidata.org/entity/Q130237602', 'http://www.wikidata.org/entity/Q130237603', 'http://www.wikidata.org/entity/Q130237604', 'http://www.wikidata.org/entity/Q130237605', 'http://www.wikidata.org/entity/Q130237607', 'http://www.wikidata.org/entity/Q130237608', 'http://www.wikidata.org/entity/Q130237609', 'http://www.wikidata.org/entity/Q130237611', 'http://www.wikidata.org/entity/Q130237612', 'http://www.wikidata.org/entity/Q130237613', 'http://www.wikidata.org/entity/Q130237615', 'http://www.wikidata.org/entity/Q130237616', 'http://www.wikidata.org/entity/Q130237617', 'http://www.wikidata.org/entity/Q130237618', 'http://www.wikidata.org/entity/Q130237619', 'http://www.wikidata.org/entity/Q130237620', 'http://www.wikidata.org/entity/Q130237621', 'http://www.wikidata.org/entity/Q130237623', 'http://www.wikidata.org/entity/Q130237624', 'http://www.wikidata.org/entity/Q130237625', 'http://www.wikidata.org/entity/Q130237626', 'http://www.wikidata.org/entity/Q130237627', 'http://www.wikidata.org/entity/Q130237628', 'http://www.wikidata.org/entity/Q130237629', 'http://www.wikidata.org/entity/Q130237630', 'http://www.wikidata.org</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q77237']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q57577']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+  </si>
+  <si>
+    <t>['Adele Laurie Blue Adkins']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q193490']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q131016']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q14280']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1930']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q3808']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q188492']</t>
+  </si>
+  <si>
+    <t>['9209944']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+  </si>
+  <si>
+    <t>['381488']</t>
+  </si>
+  <si>
+    <t>['34112.5']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q159']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q113485118', 'http://www.wikidata.org/entity/Q113859093', 'http://www.wikidata.org/entity/Q1195106', 'http://www.wikidata.org/entity/Q2771', 'http://www.wikidata.org/entity/Q3830942', 'http://www.wikidata.org/entity/Q403810', 'http://www.wikidata.org/entity/Q7091479']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q246125']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q702455']</t>
   </si>
   <si>
@@ -1263,9 +1141,6 @@
     <t>['http://www.wikidata.org/entity/Q202585']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q101114845', 'http://www.wikidata.org/entity/Q101428268', 'http://www.wikidata.org/entity/Q1017857', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q10378298', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q10513330', 'http://www.wikidata.org/entity/Q106205227', 'http://www.wikidata.org/entity/Q106689756', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q107406319', 'http://www.wikidata.org/entity/Q107655857', 'http://www.wikidata.org/entity/Q1081180', 'http://www.wikidata.org/entity/Q109554339', 'http://www.wikidata.org/entity/Q109554543', 'http://www.wikidata.org/entity/Q109555192', 'http://www.wikidata.org/entity/Q1103542', 'http://www.wikidata.org/entity/Q1111398', 'http://www.wikidata.org/entity/Q112135459', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11399791', 'http://www.wikidata.org/entity/Q115301', 'http://www.wikidata.org/entity/Q11629760', 'http://www.wikidata.org/entity/Q1176023', 'http://www.wikidata.org/entity/Q1176361', 'http://www.wikidata.org/entity/Q11858672', 'http://www.wikidata.org/entity/Q11867190', 'http://www.wikidata.org/entity/Q12010658', 'http://www.wikidata.org/entity/Q120867', 'http://www.wikidata.org/entity/Q121167557', 'http://www.wikidata.org/entity/Q122332851', 'http://www.wikidata.org/entity/Q122474625', 'http://www.wikidata.org/entity/Q122910179', 'http://www.wikidata.org/entity/Q123200520', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124037701', 'http://www.wikidata.org/entity/Q124463256', 'http://www.wikidata.org/entity/Q1267291', 'http://www.wikidata.org/entity/Q12725804', 'http://www.wikidata.org/entity/Q12762176', 'http://www.wikidata.org/entity/Q12813704', 'http://www.wikidata.org/entity/Q1282503', 'http://www.wikidata.org/entity/Q1314051', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1332284', 'http://www.wikidata.org/entity/Q13428279', 'http://www.wikidata.org/entity/Q13428924', 'http://www.wikidata.org/entity/Q13429127', 'http://www.wikidata.org/entity/Q13430549', 'http://www.wikidata.org/entity/Q13430599', 'http://www.wikidata.org/entity/Q1346808', 'http://www.wikidata.org/entity/Q1349008', 'http://www.wikidata.org/entity/Q1350269', 'http://www.wikidata.org/entity/Q13578525', 'http://www.wikidata.org/entity/Q1361982', 'http://www.wikidata.org/entity/Q13621967', 'http://www.wikidata.org/entity/Q13637576', 'http://www.wikidata.org/entity/Q13637684', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q13642623', 'http://www.wikidata.org/entity/Q13735676', 'http://www.wikidata.org/entity/Q13748173', 'http://www.wikidata.org/entity/Q13749321', 'http://www.wikidata.org/entity/Q13818959', 'http://www.wikidata.org/entity/Q14084087', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q14252911', 'http://www.wikidata.org/entity/Q14282663', 'http://www.wikidata.org/entity/Q1440487', 'http://www.wikidata.org/entity/Q14514707', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453559', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q14625857', 'http://www.wikidata.org/entity/Q1468204', 'http://www.wikidata.org/entity/Q14855238', 'http://www.wikidata.org/entity/Q1495388', 'http://www.wikidata.org/entity/Q15065014', 'http://www.wikidata.org/entity/Q1523174', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15434980', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q15485371', 'http://www.wikidata.org/entity/Q1558930', 'http://www.wikidata.org/entity/Q1558978', 'http://www.wikidata.org/entity/Q15663950', 'http://www.wikidata.org/entity/Q15782011', 'http://www.wikidata.org/entity/Q15831726', 'http://www.wikidata.org/entity/Q15831730', 'http://www.wikidata.org/entity/Q15831731', 'http://www.wikidata.org/entity/Q15831749', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15838279', 'http://www.wikidata.org/entity/Q15838400', 'http://www.wikidata.org/entity/Q15838411', 'http://www.wikidata.org/entity/Q15838414', 'http://www.wikidata.org/entity/Q15838481', 'http://www.wikidata.org/entity/Q15963688', 'http://www.wikidata.org/entity/Q15977560', 'http://www.wikidata.org/entity/Q15982372', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1604148', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q16179949', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q16560522', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1679611', 'http://www.wikidata.org/entity/Q1680582', 'http://www.wikidata.org/entity/Q1682798', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689205', 'http://www.wikidata.org/entity/Q1689925', 'http://www.wikidata.org/entity/Q16948823', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1704053', 'http://www.wikidata.org/entity/Q1729145', 'http://www.wikidata.org/entity/Q1729163', 'http://www.wikidata.org/entity/Q17302890', 'http://www.wikidata.org/entity/Q17302909', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q1730938', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q17621303', 'http://www.wikidata.org/entity/Q17630817', 'http://www.wikidata.org/entity/Q1770558', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1795197', 'http://www.wikidata.org/entity/Q18028541', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q1822323', 'http://www.wikidata.org/entity/Q1844485', 'http://www.wikidata.org/entity/Q1852290', 'http://www.wikidata.org/entity/Q18596060', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q1873386', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1886030', 'http://www.wikidata.org/entity/Q1897498', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1902333', 'http://www.wikidata.org/entity/Q1903602', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917265', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q1952063', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q1966469', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19787616', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19965844', 'http://www.wikidata.org/entity/Q1997017', 'http://www.wikidata.org/entity/Q2002094', 'http://www.wikidata.org/entity/Q20065940', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2018006', 'http://www.wikidata.org/entity/Q2018624', 'http://www.wikidata.org/entity/Q2033376', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q205139', 'http://www.wikidata.org/entity/Q2051847', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2065647', 'http://www.wikidata.org/entity/Q2071995', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q21069758', 'http://www.wikidata.org/entity/Q2113826', 'http://www.wikidata.org/entity/Q2114588', 'http://www.wikidata.org/entity/Q212175', 'http://www.wikidata.org/entity/Q2131475', 'http://www.wikidata.org/entity/Q2134409', 'http://www.wikidata.org/entity/Q2160123', 'http://www.wikidata.org/entity/Q2160443', 'http://www.wikidata.org/entity/Q2178215', 'http://www.wikidata.org/entity/Q2204603', 'http://www.wikidata.org/entity/Q2205004', 'http://www.wikidata.org/entity/Q22077690', 'http://www.wikidata.org/entity/Q2212853', 'http://www.wikidata.org/entity/Q2215501', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q2223014', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q2231142', 'http://www.wikidata.org/entity/Q2237290', 'http://www.wikidata.org/entity/Q2249186', 'http://www.wikidata.org/entity/Q2265140', 'http://www.wikidata.org/entity/Q2269117', 'http://www.wikidata.org/entity/Q2281105', 'http://www.wikidata.org/entity/Q2282012', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2296396', 'http://www.wikidata.org/entity/Q2299727', 'http://www.wikidata.org/entity/Q2301899', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2308068', 'http://www.wikidata.org/entity/Q2317152', 'http://www.wikidata.org/entity/Q2333645', 'http://www.wikidata.org/entity/Q2346719', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q2350926', 'http://www.wikidata.org/entity/Q2351608', 'http://www.wikidata.org/entity/Q2373687', 'http://www.wikidata.org/entity/Q23848', 'http://www.wikidata.org/entity/Q2388958', 'http://www.wikidata.org/entity/Q2389118', 'http://www.wikidata.org/entity/Q2389720', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2398731', 'http://www.wikidata.org/entity/Q24004815', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2434943', 'http://www.wikidata.org/entity/Q2444116', 'http://www.wikidata.org/entity/Q2452107', 'http://www.wikidata.org/entity/Q24545476', 'http://www.wikidata.org/entity/Q2461095', 'http://www.wikidata.org/entity/Q2498692', 'http://www.wikidata.org/entity/Q25016213', 'http://www.wikidata.org/entity/Q250592', 'http://www.wikidata.org/entity/Q2524882', 'http://www.wikidata.org/entity/Q2545432', 'http://www.wikidata.org/entity/Q2555494', 'http://www.wikidata.org/entity/Q2585526', 'http://www.wikidata.org/entity/Q2589470', 'http://www.wikidata.org/entity/Q2597090', 'http://www.wikidata.org/entity/Q2602149', 'http://www.wikidata.org/entity/Q2605389', 'http://www.wikidata.org/entity/Q2614369', 'http://www.wikidata.org/entity/Q2618892', 'http://www.wikidata.org/entity/Q2620075', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2658419', 'http://www.wikidata.org/entity/Q2660295', 'http://www.wikidata.org/entity/Q2666889', 'http://www.wikidata.org/entity/Q2676832', 'http://www.wikidata.org/entity/Q2686509', 'http://www.wikidata.org/entity/Q2689866', 'http://www.wikidata.org/entity/Q2723748', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q2732134', 'http://www.wikidata.org/entity/Q27349585', 'http://www.wikidata.org/entity/Q2738133', 'http://www.wikidata.org/entity/Q2750590', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q2781380', 'http://www.wikidata.org/entity/Q2805529', 'http://www.wikidata.org/entity/Q2850896', 'http://www.wikidata.org/entity/Q2916457', 'http://www.wikidata.org/entity/Q2951433', 'http://www.wikidata.org/entity/Q300779', 'http://www.wikidata.org/entity/Q3026768', 'http://www.wikidata.org/entity/Q309470', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313554', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3144611', 'http://www.wikidata.org/entity/Q319451', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q3209874', 'http://www.wikidata.org/entity/Q3219391', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q322835', 'http://www.wikidata.org/entity/Q322866', 'http://www.wikidata.org/entity/Q3289097', 'http://www.wikidata.org/entity/Q3296667', 'http://www.wikidata.org/entity/Q3317466', 'http://www.wikidata.org/entity/Q3330992', 'http://www.wikidata.org/entity/Q3367630', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q3514155', 'http://www.wikidata.org/entity/Q3521902', 'http://www.wikidata.org/entity/Q3534050', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q3562367', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q357036', 'http://www.wikidata.org/entity/Q3705319', 'http://www.wikidata.org/entity/Q3754332', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q3762145', 'http://www.wikidata.org/entity/Q3767568', 'http://www.wikidata.org/entity/Q3837619', 'http://www.wikidata.org/entity/Q3919987', 'http://www.wikidata.org/entity/Q3929797', 'http://www.wikidata.org/entity/Q3973394', 'http://www.wikidata.org/entity/Q405682', 'http://www.wikidata.org/entity/Q4102218', 'http://www.wikidata.org/entity/Q4111188', 'http://www.wikidata.org/entity/Q4112047', 'http://www.wikidata.org/entity/Q4188447', 'http://www.wikidata.org/entity/Q4192381', 'http://www.wikidata.org/entity/Q4212029', 'http://www.wikidata.org/entity/Q4216887', 'http://www.wikidata.org/entity/Q4226412', 'http://www.wikidata.org/entity/Q4251281', 'http://www.wikidata.org/entity/Q4252138', 'http://www.wikidata.org/entity/Q42786392', 'http://www.wikidata.org/entity/Q43191106', 'http://www.wikidata.org/entity/Q433579', 'http://www.wikidata.org/entity/Q4347263', 'http://www.wikidata.org/entity/Q4347986', 'http://www.wikidata.org/entity/Q4349639', 'http://www.wikidata.org/entity/Q4351622', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q4377045', 'http://www.wikidata.org/entity/Q4401249', 'http://www.wikidata.org/entity/Q4464127', 'http://www.wikidata.org/entity/Q4502786', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4765639', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q4887822', 'http://www.wikidata.org/entity/Q4889351', 'http://www.wikidata.org/entity/Q4889942', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q4956069', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q496386', 'http://www.wikidata.org/entity/Q506913', 'http://www.wikidata.org/entity/Q511817', 'http://www.wikidata.org/entity/Q5202535', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q523309', 'http://www.wikidata.org/entity/Q5235139', 'http://www.wikidata.org/entity/Q5240601', 'http://www.wikidata.org/entity/Q5246126', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q538062', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q5394507', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q5490378', 'http://www.wikidata.org/entity/Q54912317', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q55226721', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5528172', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q5560464', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q56414132', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q5788763', 'http://www.wikidata.org/entity/Q57941720', 'http://www.wikidata.org/entity/Q5860409', 'http://www.wikidata.org/entity/Q5864112', 'http://www.wikidata.org/entity/Q5872203', 'http://www.wikidata.org/entity/Q5876210', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q5929845', 'http://www.wikidata.org/entity/Q5932732', 'http://www.wikidata.org/entity/Q5990031', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6027208', 'http://www.wikidata.org/entity/Q60642757', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6145197', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q61816822', 'http://www.wikidata.org/entity/Q6202890', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q6390677', 'http://www.wikidata.org/entity/Q64860097', 'http://www.wikidata.org/entity/Q64936945', 'http://www.wikidata.org/entity/Q64949475', 'http://www.wikidata.org/entity/Q64985644', 'http://www.wikidata.org/entity/Q64993378', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q7183918', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q7319236', 'http://www.wikidata.org/entity/Q7333203', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7477602', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q787308', 'http://www.wikidata.org/entity/Q78932', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8007734', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q830257', 'http://www.wikidata.org/entity/Q85647', 'http://www.wikidata.org/entity/Q85974715', 'http://www.wikidata.org/entity/Q85974746', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q86806', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q891134', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q89804', 'http://www.wikidata.org/entity/Q904844', 'http://www.wikidata.org/entity/Q91232485', 'http://www.wikidata.org/entity/Q920288', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q930965', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q93487778', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q9422246', 'http://www.wikidata.org/entity/Q945778', 'http://www.wikidata.org/entity/Q94689370', 'http://www.wikidata.org/entity/Q964682', 'http://www.wikidata.org/entity/Q967230', 'http://www.wikidata.org/entity/Q967916', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820', 'http://www.wikidata.org/entity/Q99731455']</t>
   </si>
   <si>
@@ -1278,48 +1153,21 @@
     <t>['http://www.wikidata.org/entity/Q12152']</t>
   </si>
   <si>
-    <t>['101']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q102174232']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q2462124']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054', 'http://www.wikidata.org/entity/Q37459']</t>
   </si>
   <si>
-    <t>['5348554000']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q9215']</t>
-  </si>
-  <si>
-    <t>['1735-10-30T00:00:00Z']</t>
-  </si>
-  <si>
-    <t>['447706209']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q39099']</t>
-  </si>
-  <si>
-    <t>['1616-05-03T00:00:00Z']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q622762', 'http://www.wikidata.org/entity/Q94967350']</t>
   </si>
   <si>
     <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q178824']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q101461338', 'http://www.wikidata.org/entity/Q102262104', 'http://www.wikidata.org/entity/Q104092039', 'http://www.wikidata.org/entity/Q104754670', 'http://www.wikidata.org/entity/Q104871599', 'http://www.wikidata.org/entity/Q105946950', 'http://www.wikidata.org/entity/Q106239285', 'http://www.wikidata.org/entity/Q106641854', 'http://www.wikidata.org/entity/Q109867618', 'http://www.wikidata.org/entity/Q110409287', 'http://www.wikidata.org/entity/Q110463710', 'http://www.wikidata.org/entity/Q111208612', 'http://www.wikidata.org/entity/Q111317674', 'http://www.wikidata.org/entity/Q111550358', 'http://www.wikidata.org/entity/Q112242085', 'http://www.wikidata.org/entity/Q113053908', 'http://www.wikidata.org/entity/Q113366946', 'http://www.wikidata.org/entity/Q1134747', 'http://www.wikidata.org/entity/Q1138662', 'http://www.wikidata.org/entity/Q114467462', 'http://www.wikidata.org/entity/Q1152240', 'http://www.wikidata.org/entity/Q116163711', 'http://www.wikidata.org/entity/Q116247751', 'http://www.wikidata.org/entity/Q117359492', 'http://www.wikidata.org/entity/Q118315835', 'http://www.wikidata.org/entity/Q1189945', 'http://www.wikidata.org/entity/Q119659108', 'http://www.wikidata.org/entity/Q11975486', 'http://www.wikidata.org/entity/Q1206230', 'http://www.wikidata.org/entity/Q122293401', 'http://www.wikidata.org/entity/Q122678804', 'http://www.wikidata.org/entity/Q125547869', 'http://www.wikidata.org/entity/Q127387727', 'http://www.wikidata.org/entity/Q130487350', 'http://www.wikidata.org/entity/Q130637712', 'http://www.wikidata.org/entity/Q1318049', 'http://www.wikidata.org/entity/Q1407504', 'http://www.wikidata.org/entity/Q1427937', 'http://www.wikidata.org/entity/Q1485545', 'http://www.wikidata.org/entity/Q1501630', 'http://www.wikidata.org/entity/Q1546160', 'http://www.wikidata.org/entity/Q15526612', 'http://www.wikidata.org/entity/Q15991231', 'http://www.wikidata.org/entity/Q16486916', 'http://www.wikidata.org/entity/Q1666928', 'http://www.wikidata.org/entity/Q16827098', 'http://www.wikidata.org/entity/Q16960364', 'http://www.wikidata.org/entity/Q16968519', 'http://www.wikidata.org/entity/Q16984554', 'http://www.wikidata.org/entity/Q16995438', 'http://www.wikidata.org/entity/Q17022874', 'http://www.wikidata.org/entity/Q17051632', 'http://www.wikidata.org/entity/Q17083636', 'http://www.wikidata.org/entity/Q17084604', 'http://www.wikidata.org/entity/Q17156801', 'http://www.wikidata.org/entity/Q17509911', 'http://www.wikidata.org/entity/Q17513408', 'http://www.wikidata.org/entity/Q17762567', 'http://www.wikidata.org/entity/Q18149240', 'http://www.wikidata.org/entity/Q1827515', 'http://www.wikidata.org/entity/Q18378670', 'http://www.wikidata.org/entity/Q18689243', 'http://www.wikidata.org/entity/Q189589', 'http://www.wikidata.org/entity/Q1914308', 'http://www.wikidata.org/entity/Q19384638', 'http://www.wikidata.org/entity/Q215639', 'http://www.wikidata.org/entity/Q22080419', 'http://www.wikidata.org/entity/Q2295361', 'http://www.wikidata.org/entity/Q22977946', 'http://www.wikidata.org/entity/Q24931012', 'http://www.wikidata.org/entity/Q25303143', 'http://www.wikidata.org/entity/Q2633520', 'http://www.wikidata.org/entity/Q26389854', 'http://www.wikidata.org/entity/Q2799043', 'http://www.wikidata.org/entity/Q28127172', 'http://www.wikidata.org/entity/Q3100842', 'http://www.wikidata.org/entity/Q32860542', 'http://www.wikidata.org/entity/Q3339159', 'http://www.wikidata.org/entity/Q33400141', 'http://www.wikidata.org/entity/Q3374416', 'http://www.wikidata.org/entity/Q345760', 'http://www.wikidata.org/entity/Q3490485', 'http://www.wikidata.org/entity/Q37715030', 'http://www.wikidata.org/entity/Q380102', 'http://www.wikidata.org/entity/Q39055182', 'http://www.wikidata.org/entity/Q39468429', 'http://www.wikidata.org/entity/Q4042981', 'http://www.wikidata.org/entity/Q4052145', 'http://www.wikidata.org/entity/Q4068094', 'http://www.wikidata.org/entity/Q41487145', 'http://www.wikidata.org/entity/Q4398717', 'http://www.wikidata.org/entity/Q4647740', 'http://www.wikidata.org/entity/Q4674596', 'http://www.wikidata.org/entity/Q4685837', 'http://www.wikidata.org/entity/Q4686869', 'http://www.wikidata.org/entity/Q4780797', 'http://www.wikidata.org/entity/Q48818116', 'http://www.wikidata.org/entity/Q5027876', 'http://www.wikidata.org/entity/Q50413919', 'http://www.wikidata.org/entity/Q5099325', 'http://www.wikidata.org/entity/Q5148560', 'http://www.wikidata.org/entity/Q5159054', 'http://www.wikidata.org/entity/Q5171655', 'http://www.wikidata.org/entity/Q5241692', 'http://www.wikidata.org/entity/Q5244137', 'http://www.wikidata.org/entity/Q5276228', 'http://www.wikidata.org/entity/Q5297711', 'http://www.wikidata.org/entity/Q5306018', 'http://www.wikidata.org/entity/Q5315592', 'http://www.wikidata.org/entity/Q5387144', 'http://www.wikidata.org/entity/Q53995495', 'http://www.wikidata.org/entity/Q54001625', 'http://www.wikidata.org/entity/Q5437006', 'http://www.wikidata.org/entity/Q5500039', 'http://www.wikidata.org/entity/Q5513790', 'http://www.wikidata.org/entity/Q55985886', 'http://www.wikidata.org/entity/Q5674337', 'http://www.wikidata.org/entity/Q58096291', 'http://www.wikidata.org/entity/Q5872693', 'http://www.wikidata.org/entity/Q59186556', 'http://www.wikidata.org/entity/Q59386608', 'http://www.wikidata.org/entity/Q5973348', 'http://www.wikidata.org/entity/Q60984347', 'http://www.wikidata.org/entity/Q6275230', 'http://www.wikidata.org/entity/Q63043104', 'http://www.wikidata.org/entity/Q6319098', 'http://www.wikidata.org/entity/Q64437945', 'http://www.wikidata.org/entity/Q64627233', 'http://www.wikidata.org/entity/Q65043997', 'http://www.wikidata.org/entity/Q65057672', 'http://www.wikidata.org/entity/Q6537721', 'http://www.wikidata.org/entity/Q6556550', 'http://www.wikidata.org/entity/Q6693139', 'http://www.wikidata.org/entity/Q6717514', 'http://www.wikidata.org/entity/Q6784006', 'http://www.wikidata.org/entity/Q67871918', 'http://www.wikidata.org/entity/Q6944890', 'http://www.wikidata.org/entity/Q7053610', 'http://www.wikidata.org/entity/Q7106584', 'http://www.wikidata.org/entity/Q7111460', 'http://www.wikidata.org/entity/Q7247909', 'http://www.wikidata.org/entity/Q734779', 'http://www.wikidata.org/entity/Q7359254', 'http://www.wikidata.org/entity/Q7376897', 'http://www.wikidata.org/entity/Q7389749', 'http://www.wikidata.org/entity/Q7431857', 'http://www.wikidata.org/entity/Q7507830', 'http://www.wikidata.org/entity/Q7659050', 'http://www.wikidata.org/entity/Q7662029', 'http://www.wikidata.org/entity/Q7670791', 'http://www.wikidata.org/entity/Q7692144', 'http://www.wikidata.org/entity/Q7761583', 'http://www.wikidata.org/entity/Q7832454', 'http://www.wikidata.org/entity/Q7832475', 'http://www.wikidata.org/entity/Q7947769', 'http://www.wikidata.org/entity/Q8030011', 'http://www.wikidata.org/entity/Q8037270', 'http://www.wikidata.org/entity/Q8062804', 'http://www.wikidata.org/entity/Q83988050', 'http://www.wikidata.org/entity/Q85800351', 'http://www.wikidata.org/entity/Q96400234', 'http://www.wikidata.org/entity/Q99333588']</t>
   </si>
   <si>
@@ -1338,78 +1186,33 @@
     <t>['http://www.wikidata.org/entity/Q3896131']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q212862']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q1031959', 'http://www.wikidata.org/entity/Q107353823', 'http://www.wikidata.org/entity/Q107634702', 'http://www.wikidata.org/entity/Q107638361', 'http://www.wikidata.org/entity/Q108305735', 'http://www.wikidata.org/entity/Q10860087', 'http://www.wikidata.org/entity/Q108658638', 'http://www.wikidata.org/entity/Q11750372', 'http://www.wikidata.org/entity/Q124302084', 'http://www.wikidata.org/entity/Q124313747', 'http://www.wikidata.org/entity/Q1439850', 'http://www.wikidata.org/entity/Q14504132', 'http://www.wikidata.org/entity/Q14560946', 'http://www.wikidata.org/entity/Q16054123', 'http://www.wikidata.org/entity/Q16221402', 'http://www.wikidata.org/entity/Q17154793', 'http://www.wikidata.org/entity/Q17523891', 'http://www.wikidata.org/entity/Q17644417', 'http://www.wikidata.org/entity/Q18021520', 'http://www.wikidata.org/entity/Q18639533', 'http://www.wikidata.org/entity/Q19578089', 'http://www.wikidata.org/entity/Q19867395', 'http://www.wikidata.org/entity/Q19915730', 'http://www.wikidata.org/entity/Q20862334', 'http://www.wikidata.org/entity/Q21094770', 'http://www.wikidata.org/entity/Q2113545', 'http://www.wikidata.org/entity/Q21622402', 'http://www.wikidata.org/entity/Q21623147', 'http://www.wikidata.org/entity/Q2356473', 'http://www.wikidata.org/entity/Q2372089', 'http://www.wikidata.org/entity/Q2391239', 'http://www.wikidata.org/entity/Q24048969', 'http://www.wikidata.org/entity/Q242776', 'http://www.wikidata.org/entity/Q24955683', 'http://www.wikidata.org/entity/Q2509125', 'http://www.wikidata.org/entity/Q2567381', 'http://www.wikidata.org/entity/Q26229689', 'http://www.wikidata.org/entity/Q26236434', 'http://www.wikidata.org/entity/Q26250653', 'http://www.wikidata.org/entity/Q2668457', 'http://www.wikidata.org/entity/Q27063571', 'http://www.wikidata.org/entity/Q2734147', 'http://www.wikidata.org/entity/Q27538037', 'http://www.wikidata.org/entity/Q2754815', 'http://www.wikidata.org/entity/Q27805393', 'http://www.wikidata.org/entity/Q27995584', 'http://www.wikidata.org/entity/Q2901829', 'http://www.wikidata.org/entity/Q29021564', 'http://www.wikidata.org/entity/Q299747', 'http://www.wikidata.org/entity/Q3049594', 'http://www.wikidata.org/entity/Q33259050', 'http://www.wikidata.org/entity/Q3801963', 'http://www.wikidata.org/entity/Q3870583', 'http://www.wikidata.org/entity/Q4015878', 'http://www.wikidata.org/entity/Q4113367', 'http://www.wikidata.org/entity/Q4244582', 'http://www.wikidata.org/entity/Q460043', 'http://www.wikidata.org/entity/Q4715115', 'http://www.wikidata.org/entity/Q4715355', 'http://www.wikidata.org/entity/Q4715366', 'http://www.wikidata.org/entity/Q4715396', 'http://www.wikidata.org/entity/Q4715965', 'http://www.wikidata.org/entity/Q4721350', 'http://www.wikidata.org/entity/Q4730244', 'http://www.wikidata.org/entity/Q4751854', 'http://www.wikidata.org/entity/Q4759167', 'http://www.wikidata.org/entity/Q4759191', 'http://www.wikidata.org/entity/Q4767053', 'http://www.wikidata.org/entity/Q4797426', 'http://www.wikidata.org/entity/Q50221013', 'http://www.wikidata.org/entity/Q508250', 'http://www.wikidata.org/entity/Q5219224', 'http://www.wikidata.org/entity/Q5219549', 'http://www.wikidata.org/entity/Q5348229', 'http://www.wikidata.org/entity/Q556111', 'http://www.wikidata.org/entity/Q55972891', 'http://www.wikidata.org/entity/Q56043337', 'http://www.wikidata.org/entity/Q56073370', 'http://www.wikidata.org/entity/Q57114357', 'http://www.wikidata.org/entity/Q6069817', 'http://www.wikidata.org/entity/Q6069906', 'http://www.wikidata.org/entity/Q65589494', 'http://www.wikidata.org/entity/Q66317885', 'http://www.wikidata.org/entity/Q6761242', 'http://www.wikidata.org/entity/Q6763800', 'http://www.wikidata.org/entity/Q6763906', 'http://www.wikidata.org/entity/Q6968363', 'http://www.wikidata.org/entity/Q6968364', 'http://www.wikidata.org/entity/Q7035893', 'http://www.wikidata.org/entity/Q7038078', 'http://www.wikidata.org/entity/Q7086047', 'http://www.wikidata.org/entity/Q7086663', 'http://www.wikidata.org/entity/Q7086674', 'http://www.wikidata.org/entity/Q7263180', 'http://www.wikidata.org/entity/Q7454107', 'http://www.wikidata.org/entity/Q7680835', 'http://www.wikidata.org/entity/Q7910781', 'http://www.wikidata.org/entity/Q7910881', 'http://www.wikidata.org/entity/Q7910896', 'http://www.wikidata.org/entity/Q7929719', 'http://www.wikidata.org/entity/Q7929757', 'http://www.wikidata.org/entity/Q7929832', 'http://www.wikidata.org/entity/Q7938430', 'http://www.wikidata.org/entity/Q7938643', 'http://www.wikidata.org/entity/Q8051367', 'http://www.wikidata.org/entity/Q8053274', 'http://www.wikidata.org/entity/Q87832143', 'http://www.wikidata.org/entity/Q9146400', 'http://www.wikidata.org/entity/Q9323051']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q6074']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q5159490']</t>
   </si>
   <si>
-    <t>['9606916']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123281296', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
   </si>
   <si>
-    <t>['3']</t>
-  </si>
-  <si>
-    <t>['147']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q851']</t>
-  </si>
-  <si>
-    <t>['180']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q210669']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q138578']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q2590944']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q1070749', 'http://www.wikidata.org/entity/Q116691328', 'http://www.wikidata.org/entity/Q1247718', 'http://www.wikidata.org/entity/Q2364709']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q1348730', 'http://www.wikidata.org/entity/Q39864', 'http://www.wikidata.org/entity/Q40317']</t>
   </si>
   <si>
-    <t>['96995000000']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q4799733']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q16']</t>
-  </si>
-  <si>
-    <t>['198']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
   </si>
   <si>
-    <t>['38274618']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100271515', 'http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100740692', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281749', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10281780', 'http://www.wikidata.org/entity/Q10281783', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10281793', 'http://www.wikidata.org/entity/Q10281798', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q1033140', 'http://www.wikidata.org/entity/Q103407630', 'http://www.wikidata.org/entity/Q103408482', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q103461996', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10405623', 'http://www.wikidata.org/entity/Q10405661', 'http://www.wikidata.org/entity/Q10411424', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495385', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10541293', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q1054975', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q105888686', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106113886', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106333', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106462957', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q106658464', 'http://www.wikidata.org/entity/Q106658575', 'http://www.wikidata.org/entity/Q106658749', 'http://www.wikidata.org/entity/Q106658879', 'http://www.wikidata.org/entity/Q106659060', 'http://www.wikidata.org/entity/Q106663543', 'http://www.wikidata.org/entity/Q106663566', 'http://www.wikidata.org/entity/Q106663587', 'http://www.wikidata.org/entity/Q106663613', 'http://www.wikidata.org/entity/Q106663745', 'http://www.wikidata.org/entity/Q106663779', 'http://www.wikidata.org/entity/Q106663799', 'http://www.wikidata.org/entity/Q106664025', 'http://www.wikidata.org/entity/Q106664072', 'http://www.wikidata.org/entity/Q106664114', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q106698317', 'http://www.wikidata.org/entity/Q106708800', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106810895', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107296290', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107438167', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108131396', 'http://www.wikidata.org/entity/Q108177441', 'http://www.wikidata.org/entity/Q108183111', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108333212', 'http://www.wikidata.org/entity/Q108338128', 'http://www.wikidata.org/entity/Q108367189', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108404671', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q108447771', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10854390', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108581891', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108783890', 'http://www.wikidata.org/entity/Q108803354', 'http://www.wikidata.org/entity/Q108803791', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108923501', 'http://www.wikidata.org/entity/Q108927805', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q1090024', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109310919', 'http://www.wikidata.org/entity/Q109311258', 'http://www.wikidata.org/entity/Q109311824', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q109500716', 'http://www.wikidata.org/entity/Q1095258', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109593799', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109727087', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q10985961', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q109923166', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110064747', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110192210', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110246928', 'http://www.wikidata.org/entity/Q110413817', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q1107928', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q111191757', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111242836', 'http://www.wikidata.org/entity/Q111242852', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111551849', 'http://www.wikidata.org/entity/Q111551982', 'http://www.wikidata.org/entity/Q111552242', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111633412', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111725919', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738315', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111848989', 'http://www.wikidata.org/entity/Q111850874', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111968636', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112045555', 'http://www.wikidata.org/entity/Q11205278', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183440', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q112630989', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112667845', 'http://www.wikidata.org/entity/Q112667901', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112674649', 'http://www.wikidata.org/entity/Q112678738', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q112769957', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q11278649', 'http://www.wikidata.org/entity/Q1128065', 'http://www.wikidata.org/entity/Q112894936', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113325889', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113406974', 'http://www.wikidata.org/entity/Q113458549', 'http://www.wikidata.org/entity/Q113458586', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470239', 'http://www.wikidata.org/entity/Q113470340', 'http://www.wikidata.org/entity/Q113470387', 'http://www.wikidata.org/entity/Q113470512', 'http://www.wikidata.org/entity/Q113470522', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata</t>
   </si>
   <si>
@@ -1425,24 +1228,9 @@
     <t>['http://www.wikidata.org/entity/Q1000089', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000309', 'http://www.wikidata.org/entity/Q1000631', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001175', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q1001304', 'http://www.wikidata.org/entity/Q100149495', 'http://www.wikidata.org/entity/Q100151770', 'http://www.wikidata.org/entity/Q100152085', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100220', 'http://www.wikidata.org/entity/Q100224', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100248945', 'http://www.wikidata.org/entity/Q100251', 'http://www.wikidata.org/entity/Q100264', 'http://www.wikidata.org/entity/Q100269', 'http://www.wikidata.org/entity/Q100277164', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100299', 'http://www.wikidata.org/entity/Q100318', 'http://www.wikidata.org/entity/Q100322', 'http://www.wikidata.org/entity/Q100333', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100338', 'http://www.wikidata.org/entity/Q100347140', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100361853', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100414', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100417', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100451', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q1004736', 'http://www.wikidata.org/entity/Q100491593', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100545', 'http://www.wikidata.org/entity/Q100562', 'http://www.wikidata.org/entity/Q100571', 'http://www.wikidata.org/entity/Q100572', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100675530', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100784561', 'http://www.wikidata.org/entity/Q100841', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100893', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q100954855', 'http://www.wikidata.org/entity/Q100981152', 'http://www.wikidata.org/entity/Q100989', 'http://www.wikidata.org/entity/Q100989640', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101079', 'http://www.wikidata.org/entity/Q101094', 'http://www.wikidata.org/entity/Q101104', 'http://www.wikidata.org/entity/Q101112792', 'http://www.wikidata.org/entity/Q101120', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101200085', 'http://www.wikidata.org/entity/Q101203', 'http://www.wikidata.org/entity/Q101209739', 'http://www.wikidata.org/entity/Q101210090', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101243079', 'http://www.wikidata.org/entity/Q101252599', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101347', 'http://www.wikidata.org/entity/Q101380', 'http://www.wikidata.org/entity/Q101381', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q10147562', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101507816', 'http://www.wikidata.org/entity/Q101524', 'http://www.wikidata.org/entity/Q101554634', 'http://www.wikidata.org/entity/Q101598', 'http://www.wikidata.org/entity/Q101615', 'http://www.wikidata.org/entity/Q101618', 'http://www.wikidata.org/entity/Q1016445', 'http://www.wikidata.org/entity/Q1016492', 'http://www.wikidata.org/entity/Q101705', 'http://www.wikidata.org/entity/Q101719', 'http://www.wikidata.org/entity/Q101720', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101775', 'http://www.wikidata.org/entity/Q101782', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101855', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q1019017', 'http://www.wikidata.org/entity/Q1019427', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101973', 'http://www.wikidata.org/entity/Q102047618', 'http://www.wikidata.org/entity/Q102050', 'http://www.wikidata.org/entity/Q1020684', 'http://www.wikidata.org/entity/Q1020694', 'http://www.wikidata.org/entity/Q102109528', 'http://www.wikidata.org/entity/Q102115662', 'http://www.wikidata.org/entity/Q102127', 'http://www.wikidata.org/entity/Q102140621', 'http://www.wikidata.org/entity/Q102260', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102287149', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102294', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102332', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102356959', 'http://www.wikidata.org/entity/Q102363', 'http://www.wikidata.org/entity/Q102374', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102504', 'http://www.wikidata.org/entity/Q102530', 'http://www.wikidata.org/entity/Q102572', 'http://www.wikidata.org/entity/Q102574', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102627', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q1026499', 'http://www.wikidata.org/entity/Q102650', 'http://www.wikidata.org/entity/Q102651', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102693', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q102743', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102796', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q1028813', 'http://www.wikidata.org/entity/Q1028955', 'http://www.wikidata.org/entity/Q102923', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102947', 'http://www.wikidata.org/entity/Q102961', 'http://www.wikidata.org/entity/Q102976', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q1029964', 'http://www.wikidata.org/entity/Q102998', 'http://www.wikidata.org/entity/Q103000', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q1030539', 'http://www.wikidata.org/entity/Q103158', 'http://www.wikidata.org/entity/Q1031845', 'http://www.wikidata.org/entity/Q103197', 'http://www.wikidata.org/entity/Q103223179', 'http://www.wikidata.org/entity/Q103256', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103361', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103391', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103415', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q103544', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q1036168', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q103643', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103702', 'http://www.wikidata.org/entity/Q103718', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q103746', 'http://www.wikidata.org/entity/Q103755600', 'http://www.wikidata.org/entity/Q103760', 'http://www.wikidata.org/entity/Q103775022', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103827144', 'http://www.wikidata.org/entity/Q103844323', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q1038953', 'http://www.wikidata.org/entity/Q103920', 'http://www.wikidata.org/entity/Q1039299', 'http://www.wikidata.org/entity/Q103948', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103980542', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q1039868', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104006972', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q1040432', 'http://www.wikidata.org/entity/Q104084', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104120371', 'http://www.wikidata.org/entity/Q104121', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q1041500', 'http://www.wikidata.org/entity/Q1041514', 'http://www.wikidata.org/entity/Q104153430', 'http://www.wikidata.org/entity/Q1041535', 'http://www.wikidata.org/entity/Q104154734', 'http://www.wikidata.org/entity/Q104155641', 'http://www.wikidata.org/entity/Q104155750', 'http://www.wikidata.org/entity/Q1041559', 'http://www.wikidata.org/entity/Q104156172', 'http://www.wikidata.org/entity/Q104156463', 'http://www.wikidata.org/entity/Q104157044', 'http://www.wikidata.org/entity/Q1041582', 'http://www.wikidata.org/entity/Q104160134', 'http://www.wikidata.org/entity/Q104161808', 'http://www.wikidata.org/entity/Q104162235', 'http://www.wikidata.org/entity/Q104172860', 'http://www.wikidata.org/entity/Q104176819', 'http://www.wikidata.org/entity/Q104178588', 'http://www.wikidata.org/entity/Q104180930', 'http://www.wikidata.org/entity/Q1041870', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104198093', 'http://www.wikidata.org/entity/Q104198269', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104211573', 'http://www.wikidata.org/entity/Q104212560', 'http://www.wikidata.org/entity/Q104213', 'http://www.wikidata.org/entity/Q104218050', 'http://www.wikidata.org/entity/Q1043589', 'http://www.wikidata.org/entity/Q1043681', 'http://www.wikidata.org/entity/Q1043709', 'http://www.wikidata.org/entity/Q104371', 'http://www.wikidata.org/entity/Q104383260', 'http://www.wikidata.org/entity/Q104383283', 'http://www.wikidata.org/entity/Q104385', 'http://www.wikidata.org/entity/Q104418200', 'http://www.wikidata.org/entity/Q104427', 'http://www.wikidata.org/entity/Q1044342', 'http://www.wikidata.org/entity/Q1044346', 'http://www.wikidata.org/entity/Q1044348', 'http://www.wikidata.org/entity/Q104437885', 'http://www.wikidata.org/entity/Q104439569', 'http://www.wikidata.org/entity/Q1044477', 'http://www.wikidata.org/entity/Q1044494', 'http://www.wikidata.org/entity/Q1044514', 'http://www.wikidata.org/entity/Q1044559', 'http://www.wikidata.org/entity/Q104468053', 'http://www.wikidata.org/entity/Q104476', 'http://www.wikidata.org/entity/Q104520659', 'http://www.wikidata.org/entity/Q104521370', 'http://www.wikidata.org/entity/Q104522001', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q1045477', 'http://www.wikidata.org/entity/Q104568', 'http://www.wikidata.org/entity/Q1045680', 'http://www.wikidata.org/entity/Q1045683', 'http://www.wikidata.org/entity/Q1045722', 'http://www.wikidata.org/entity/Q104576', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104579681', 'http://www.wikidata.org/entity/Q104587770', 'http://www.wikidata.org/entity/Q104590907', 'http://www.wikidata.org/entity/Q104599978', 'http://www.wikidata.org/entity/Q104601', 'http://www.wikidata.org/entity/Q104604', 'http://www.wikidata.org/entity/Q104604553', 'http://www.wikidata.org/entity/Q104613862', 'http://www.wikidata.org/entity/Q104615564', 'http://www.wikidata.org/entity/Q104626181', 'http://www.wikidata.org/entity/Q104631795', 'http://www.wikidata.org/entity/Q104659505', 'http://www.wikidata.org/entity/Q104663127', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104665277', 'http://www.wikidata.org/entity/Q104667', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104696788', 'http://www.wikidata.org/entity/Q104700634', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104730', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104760625', 'http://www.wikidata.org/entity/Q104762922', 'http://www.wikidata.org/entity/Q104764834', 'http://www.wikidata.org/entity/Q104764873', 'http://www.wikidata.org/entity/Q104764874', 'http://www.wikidata.org/entity/Q104764949', 'http://www.wikidata.org/entity/Q104764974', 'http://www.wikidata.org/entity/Q104765018', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104782393', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104845706', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104869469', 'http://www.wikidata.org/entity/Q104876', 'http://www.wikidata.org/entity/Q104878044', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104884382', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104925', 'http://www.wikidata.org/entity/Q104925281', 'http://www.wikidata.org/entity/Q104929865', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105047008', 'http://www.wikidata.org/entity/Q105047482', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105058', 'http://www.wikidata.org/entity/Q105064646', 'http://www.wikidata.org/entity/Q105065', 'http://www.wikidata.org/entity/Q105070220', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105102', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q1051091', 'http://www.wikidata.org/entity/Q1051126', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105116505', 'http://www.wikidata.org/entity/Q105118747', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105133286', 'http://www.wikidata.org/entity/Q105134406', 'http://www.wikidata.org/entity/Q105136295', 'http://www.wikidata.org/entity/Q105138', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105149', 'http://www.wikidata.org/entity/Q105166', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q1051939', 'http://www.wikidata.org/entity/Q105199568', 'http://www.wikidata.org/entity/Q1052372', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105297', 'http://www.wikidata.org/entity/Q105309404', 'http://www.wikidata.org/entity/Q105336746', 'http://www.wikidata.org/entity/Q105338506', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105391976', 'http://www.wikidata.org/entity/Q105451432', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q105494121', 'http://www.wikidata.org/entity/Q105549643', 'http://www.wikidata.org/entity/Q105549794', 'http://www.wikidata.org/entity/Q105559', 'http://www.wikidata.org/entity/Q105585136', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105613248', 'http://www.wikidata.org/entity/Q105627147', 'http://www.wikidata.org/entity/Q105631', 'http://www.wikidata.org/entity/Q10563757', 'http://www.wikidata.org/entity/Q105642', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105671328', 'http://www.wikidata.org/entity/Q105675820', 'http://www.wikidata.org/entity/Q105679', 'http://www.wikidata.org/entity/Q105681', 'http://www.wikidata.org/entity/Q105691', 'http://www.wikidata.org/entity/Q105716', 'http://www.wikidata.org/entity/Q105716679', 'http://www.wikidata.org/entity/Q105724333', 'http://www.wikidata.org/entity/Q105737724', 'http://www.wikidata.org/entity/Q105754846', 'http://www.wikidata.org/entity/Q105755335', 'http://www.wikidata.org/entity/Q105767098', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105770599', 'http://www.wikidata.org/entity/Q105785', 'http://www.wikidata.org/entity/Q105832784', 'http://www.wikidata.org/entity/Q105848334', 'http://www.wikidata.org/entity/Q105901', 'http://www.wikidata.org/entity/Q105914', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105918', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q105944757', 'http://www.wikidata.org/entity/Q105992322', 'http://www.wikidata.org/entity/Q105992955', 'http://www.wikidata.org/entity/Q106000338', 'http://www.wikidata.org/entity/Q106006759', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106061', 'http://www.wikidata.org/entity/Q106098372', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106135271', 'http://www.wikidata.org/entity/Q106159611', 'http://www.wikidata.org/entity/Q106177', 'http://www.wikidata.org/entity/Q106188490', 'http://www.wikidata.org/entity/Q106223560', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106260', 'http://www.wikidata.org/entity/Q106298187', 'http://www.wikidata.org/entity/Q106311564', 'http://www.wikidata.org/entity/Q106311574', 'http://www.wikidata.org/entity/Q106322507', 'http://www.wikidata.org/entity/Q106323314', 'http://www.wikidata.org/entity/Q106358178', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106373', 'http://www.wikidata.org/entity/Q106390', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106395745', 'http://www.wikidata.org/entity/Q106412', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106438', 'http://www.wikidata.org/entity/Q106455', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106493', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106512329', 'http://www.wikidata.org/entity/Q106518946', 'http://www.wikidata.org/entity/Q106519848', 'http://www.wikidata.org/entity/Q1065321', 'http://www.wikidata.org/entity/Q106548568', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106564535', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q106594046', 'http://www.wikidata.org/entity/Q106595246', 'http://www.wikidata.org/entity/Q106631203', 'http://www.wikidata.org/entity/Q106637474', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106664319', 'http://www.wikidata.org/entity/Q106675767', 'http://www.wikidata.org/entity/Q106689558', 'http://www.wikidata.org/entity/Q1067102', 'http://www.wikidata.org/entity/Q1067206', 'http://www.wikidata.org/entity/Q1067219', 'http://www.wikidata.org/entity/Q1067238', 'http://www.wikidata.org/entity/Q1067243', 'http://www.wikidata.org/entity/Q1067327', 'http://www.wikidata.org/entity/Q1067337', 'http://www.wikidata.org/entity/Q106744', 'http://www.wikidata.org/entity/Q1067500', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q106754', 'http://www.wikidata.org/entity/Q106768194', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106819841', 'http://www.wikidata.org/entity/Q106831105', 'http://www.wikidata.org/entity/Q106841995', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106878335', 'http://www.wikidata.org/entity/Q106890375', 'http://www.wikidata.org/entity/Q106936826', 'http://www.wikidata.org/entity/Q106939', 'http://www.wikidata.org/entity/Q107036249', 'http://www.wikidata.org/entity/Q107045040', 'http://www.wikidata.org/entity/Q107112297', 'http://www.wikidata.org/entity/Q1071648', 'http://www.wikidata.org/entity/Q107190753', 'http://www.wikidata.org/entity/Q107204799', 'http://www.wikidata.org/entity/Q107219', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107286074', 'http://www.wikidata.org/entity/Q107291', 'http://www.wikidata.org/entity/Q1073163', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107349965', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107362784', 'http://www.wikidata.org/entity/Q107364', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107379896', 'http://www.wikidata.org/entity/Q107410916', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107474234', 'http://www.wikidata.org/entity/Q107483', 'http://www.wikidata.org/entity/Q107500877', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107538718', 'http://www.wikidata.org/entity/Q107583', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107605', 'http://www.wikidata.org/entity/Q107609122', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107646', 'http://www.wikidata.org/entity/Q107651', 'http://www.wikidata.org/entity/Q107679210', 'http://www.wikidata.org/entity/Q107683', 'http://www.wikidata.org/entity/Q107711622', 'http://www.wikidata.org/entity/Q107740134', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107782', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q107790473', 'http://www.wikidata.org/entity/Q1078028', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q1078106', 'http://www.wikidata.org/entity/Q1078277', 'http://www.wikidata.org/entity/Q107849', 'http://www.wikidata.org/entity/Q107869', 'http://www.wikidata.org/entity/Q1078911', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q1079558', 'http://www.wikidata.org/entity/Q107973784', 'http://www.wikidata.org/entity/Q107983', 'http://www.wikidata.org/entity/Q107987303', 'http://www.wikidata.org/entity/Q1080253', 'http://www.wikidata.org/entity/Q108029097', 'http://www.wikidata.org/entity/Q1080329', 'http://www.wikidata.org/entity/Q108035', 'http://www.wikidata.org/entity/Q1080540', 'http://www.wikidata.org/entity/Q108057', 'http://www.wikidata.org/entity/Q1080623', 'http://www.wikidata.org/entity/Q1080649', 'http://www.wikidata.org/entity/Q108070', 'http://www.wikidata.org/entity/Q1080716', 'http://www.wikidata.org/entity/Q1080732', 'http://www.wikidata.org/entity/Q1080816', 'http://www.wikidata.org/entity/Q1080819', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q1081113', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q108127805', 'http://www.wikidata.org/entity/Q1081287', 'http://www.wikidata.org/entity/Q1081437', 'http://www.wikidata.org/entity/Q108153', 'http://www.wikidata.org/entity/Q1081561', 'http://www.wikidata.org/entity/Q1081599', 'http://www.wikidata.org/entity/Q1081610', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q1081758', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q108196632', 'http://www.wikidata.org/entity/Q108201130', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q1082198', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q108230', 'http://www.wikidata.org/entity/Q108233', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q1082640', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082749', 'http://www.wikidata.org/entity/Q1082754', 'http://www.wikidata.org/entity/Q1082761', 'http://www.wikidata.org/entity/Q1082798', 'http://www.wikidata.org/entity/Q108285546', 'http://www.wikidata.org/entity/Q108287276', 'http://www.wikidata.org/entity/Q1082880', 'http://www.wikidata.org/entity/Q108294049', 'http://www.wikidata.org/entity/Q108294329', 'http://www.wikidata.org/entity/Q108294870', 'http://www.wikidata.org/entity/Q108296218', 'http://www.wikidata.org/entity/Q108296809', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q1083077', 'http://www.wikidata.org/entity/Q1083086', 'http://www.wikidata.org/entity/Q1083099', 'http://www.wikidata.org/entity/Q108311', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083162', 'http://www.wikidata.org/entity/Q1083168', 'http://www.wikidata.org/entity/Q108319856', 'http://www.wikidata.org/entity/Q1083435', 'http://www.wikidata.org/entity/Q1083539', 'http://www.wikidata.org/entity/Q1083559', 'http://www.wikidata.org/entity/Q1083566', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q1083583', 'http://www.wikidata.org/entity/Q1083622', 'http://www.wikidata.org/entity/Q1083624', 'http://www.wikidata.org/entity/Q1083644', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q1083730', 'http://www.wikidata.org/entity/Q108378294', 'http://www.wikidata.org/entity/Q1083806', 'http://www.wikidata.org/entity/Q1083827', 'http://www.wikidata.org/entity/Q108393', 'http://www.wikidata.org/entity/Q108434', 'http://www.wikidata.org/entity/Q108436220', 'http://www.wikidata.org/entity/Q1084549', 'http://www.wikidata.org/entity/Q1084557', 'http://www.wikidata.org/entity/Q1084596', 'http://www.wikidata.org/entity/Q108469', 'http://www.wikidata.org/entity/Q1084818', 'http://www.wikidata.org/entity/Q1084956', 'http://www.wikidata.org/entity/Q1084985', 'http://www.wikidata.org/entity/Q1085038', 'http://www.wikidata.org/entity/Q108504516', 'http://www.wikidata.org/entity/Q1085172', 'http://www.wikidata.org/entity/Q1085185', 'http://www.wikidata.org/entity/Q1085225', 'http://www.wikidata.org/entity/Q1085257', 'http://www.wikidata.org/entity/Q108526446', 'http://www.wikidata.org/entity/Q1085341', 'http://www.wikidata.org/entity/Q1085356', 'http://www.wikidata.org/entity/Q1085410', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q108595256', 'http://www.wikidata.org/entity/Q1086005', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108617374', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q1086472', 'http://www.wikidata.org/entity/Q108660', 'http://www.wikidata.org/entity/Q108662429', 'http://www.wikidata.org/entity/Q108665648', 'http://www.wikidata.org/entity/Q1086799', 'http://www.wikidata.org/entity/Q108693451', 'http://www.wikidata.org/entity/Q108733443', 'http://www.wikidata.org/entity/Q108760927', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108803590', 'http://www.wikidata.org/entity/Q108805554', 'http://www.wikidata.org/entity/Q108811390', 'http://www.wikidata.org/entity/Q108828331', 'http://www.wikidata.org/entity/Q108839248', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108861150', 'http://www.wikidata.org/entity/Q108861193', 'http://www.wikidata.org/entity/Q108862137', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108872482', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108873296', 'http://www.wikidata.org/entity/Q108884586', 'http://www.wikidata.org/entity/Q108914380', 'http://www.wikidata.org/entity/Q108920', 'http://www.wikidata.org/entity/Q108928', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108964', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108972', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q108989', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109050', 'http://www.wikidata.org/entity/Q109104', 'http://www.wikidata.org/entity/Q109123', 'http://www.wikidata.org/entity/Q109124517', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109131', 'http://www.wikidata.org/entity/Q109141', 'http://www.wikidata.org/entity/Q109148', 'http://www.wikidata.org/entity/Q1091893', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q109200280', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109225', 'http://www.wikidata.org/entity/Q1092317', 'http://www.wikidata.org/entity/Q109252043', 'http://www.wikidata.org/entity/Q109253595', 'http://www.wikidata.org/entity/Q109271422', 'http://www.wikidata.org/entity/Q109286', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q109306', 'http://www.wikidata.org/entity/Q109316729', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109355446', 'http://www.wikidata.org/entity/Q109356764', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109366', 'http://www.wikidata.org/entity/Q109375705', 'http://www.wikidata.org/entity/Q109382417', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q1094818', 'http://www.wikidata.org/entity/Q109492', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109507264', 'http://www.wikidata.org/entity/Q109516', 'http://www.wikidata.org/entity/Q109526534', 'http://www.wikidata.org/entity/Q109534', 'http://www.wikidata.org/entity/Q109551709', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109566877', 'http://www.wikidata.org/entity/Q109581', 'http://www.wikidata.org/entity/Q109587133', 'http://www.wikidata.org/entity/Q109595', 'http://www.wikidata.org/entity/Q109603', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109619', 'http://www.wikidata.org/entity/Q109623', 'http://www.wikidata.org/entity/Q109628', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109650102', 'http://www.wikidata.org/entity/Q109653134', 'http://www.wikidata.org/entity/Q109656492', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q1097341', 'http://www.wikidata.org/entity/Q1097365', 'http://www.wikidata.org/entity/Q1097434', 'http://www.wikidata.org/entity/Q1097461', 'http://www.wikidata.org/entity/Q1097463', 'http://www.wikidata.org/entity/Q1097471', 'http://www.wikidata.org/entity/Q1097480', 'http://www.wikidata.org/entity/Q1097526', 'http://www.wikidata.org/entity/Q1097527', 'http://www.wikidata.org/entity/Q1097592', 'http://www.wikidata.org/entity/Q1097610', 'http://www.wikidata.org/entity/Q1097620', 'http://www.wikidata.org/entity/Q1097640', 'http://www.wikidata.org/entity/Q1097686', 'http://www.wikidata.org/entity/Q1097701', 'http://www.wikidata.org/entity/Q1097712', 'http://www.wikidata.org/entity/Q1097756', 'http://www.wikidata.org/entity/Q1097774', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q1097863', 'http://www.wikidata.org/entity/Q1097915', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q1</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q77237']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q57577']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
   </si>
   <si>
-    <t>['Adele Laurie Blue Adkins']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q193490']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q131016']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q95199838', 'http://www.wikidata.org/entity/Q55451835', 'http://www.wikidata.org/entity/Q19966956', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q24078', 'http://www.wikidata.org/entity/Q1441046', 'http://www.wikidata.org/entity/Q16563052', 'http://www.wikidata.org/entity/Q87735', 'http://www.wikidata.org/entity/Q111031308', 'http://www.wikidata.org/entity/Q125347249', 'http://www.wikidata.org/entity/Q112469746', 'http://www.wikidata.org/entity/Q15436531', 'http://www.wikidata.org/entity/Q1468949', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q5946570', 'http://www.wikidata.org/entity/Q43382717', 'http://www.wikidata.org/entity/Q85051', 'http://www.wikidata.org/entity/Q78934', 'http://www.wikidata.org/entity/Q697055', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q55682962', 'http://www.wikidata.org/entity/Q12028148', 'http://www.wikidata.org/entity/Q19309506', 'http://www.wikidata.org/entity/Q78793', 'http://www.wikidata.org/entity/Q2173626', 'http://www.wikidata.org/entity/Q51844338', 'http://www.wikidata.org/entity/Q61199008', 'http://www.wikidata.org/entity/Q94743563']</t>
   </si>
   <si>
@@ -1458,48 +1246,21 @@
     <t>['http://www.wikidata.org/entity/Q102483', 'http://www.wikidata.org/entity/Q1153825', 'http://www.wikidata.org/entity/Q121180', 'http://www.wikidata.org/entity/Q123469', 'http://www.wikidata.org/entity/Q127349', 'http://www.wikidata.org/entity/Q129155', 'http://www.wikidata.org/entity/Q129173', 'http://www.wikidata.org/entity/Q129187', 'http://www.wikidata.org/entity/Q131318', 'http://www.wikidata.org/entity/Q131326', 'http://www.wikidata.org/entity/Q131487', 'http://www.wikidata.org/entity/Q131549', 'http://www.wikidata.org/entity/Q132589', 'http://www.wikidata.org/entity/Q132684', 'http://www.wikidata.org/entity/Q132695', 'http://www.wikidata.org/entity/Q132701', 'http://www.wikidata.org/entity/Q132723', 'http://www.wikidata.org/entity/Q133042', 'http://www.wikidata.org/entity/Q134641', 'http://www.wikidata.org/entity/Q134644', 'http://www.wikidata.org/entity/Q1403', 'http://www.wikidata.org/entity/Q159552', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q165823', 'http://www.wikidata.org/entity/Q18143', 'http://www.wikidata.org/entity/Q222944', 'http://www.wikidata.org/entity/Q225554', 'http://www.wikidata.org/entity/Q226525', 'http://www.wikidata.org/entity/Q23434', 'http://www.wikidata.org/entity/Q2344210', 'http://www.wikidata.org/entity/Q234819', 'http://www.wikidata.org/entity/Q241248', 'http://www.wikidata.org/entity/Q25351', 'http://www.wikidata.org/entity/Q254032', 'http://www.wikidata.org/entity/Q25973', 'http://www.wikidata.org/entity/Q272855', 'http://www.wikidata.org/entity/Q274334', 'http://www.wikidata.org/entity/Q317877', 'http://www.wikidata.org/entity/Q33760', 'http://www.wikidata.org/entity/Q34189', 'http://www.wikidata.org/entity/Q34474', 'http://www.wikidata.org/entity/Q34670', 'http://www.wikidata.org/entity/Q34743', 'http://www.wikidata.org/entity/Q37030', 'http://www.wikidata.org/entity/Q37060', 'http://www.wikidata.org/entity/Q37327', 'http://www.wikidata.org/entity/Q37767', 'http://www.wikidata.org/entity/Q38049', 'http://www.wikidata.org/entity/Q38392', 'http://www.wikidata.org/entity/Q392', 'http://www.wikidata.org/entity/Q39212', 'http://www.wikidata.org/entity/Q39803', 'http://www.wikidata.org/entity/Q40213', 'http://www.wikidata.org/entity/Q40826', 'http://www.wikidata.org/entity/Q40874', 'http://www.wikidata.org/entity/Q41042', 'http://www.wikidata.org/entity/Q41223', 'http://www.wikidata.org/entity/Q41488', 'http://www.wikidata.org/entity/Q41502', 'http://www.wikidata.org/entity/Q42037', 'http://www.wikidata.org/entity/Q42122', 'http://www.wikidata.org/entity/Q42156', 'http://www.wikidata.org/entity/Q42247', 'http://www.wikidata.org/entity/Q42398', 'http://www.wikidata.org/entity/Q42443', 'http://www.wikidata.org/entity/Q42552', 'http://www.wikidata.org/entity/Q42596', 'http://www.wikidata.org/entity/Q42747', 'http://www.wikidata.org/entity/Q43293', 'http://www.wikidata.org/entity/Q43440', 'http://www.wikidata.org/entity/Q43523', 'http://www.wikidata.org/entity/Q43736', 'http://www.wikidata.org/entity/Q44107', 'http://www.wikidata.org/entity/Q44183', 'http://www.wikidata.org/entity/Q443868', 'http://www.wikidata.org/entity/Q44519', 'http://www.wikidata.org/entity/Q44593', 'http://www.wikidata.org/entity/Q45970', 'http://www.wikidata.org/entity/Q46405', 'http://www.wikidata.org/entity/Q46602', 'http://www.wikidata.org/entity/Q46739', 'http://www.wikidata.org/entity/Q47162', 'http://www.wikidata.org/entity/Q47243', 'http://www.wikidata.org/entity/Q47484', 'http://www.wikidata.org/entity/Q47561', 'http://www.wikidata.org/entity/Q47619', 'http://www.wikidata.org/entity/Q47695', 'http://www.wikidata.org/entity/Q47755', 'http://www.wikidata.org/entity/Q49747', 'http://www.wikidata.org/entity/Q5646626', 'http://www.wikidata.org/entity/Q57074', 'http://www.wikidata.org/entity/Q5878', 'http://www.wikidata.org/entity/Q6538', 'http://www.wikidata.org/entity/Q7176', 'http://www.wikidata.org/entity/Q72334', 'http://www.wikidata.org/entity/Q7241', 'http://www.wikidata.org/entity/Q75603', 'http://www.wikidata.org/entity/Q75612', 'http://www.wikidata.org/entity/Q76487', 'http://www.wikidata.org/entity/Q765', 'http://www.wikidata.org/entity/Q7728', 'http://www.wikidata.org/entity/Q80064', 'http://www.wikidata.org/entity/Q80095', 'http://www.wikidata.org/entity/Q80321', 'http://www.wikidata.org/entity/Q80871', 'http://www.wikidata.org/entity/Q80889', 'http://www.wikidata.org/entity/Q80900', 'http://www.wikidata.org/entity/Q81685', 'http://www.wikidata.org/entity/Q82248', 'http://www.wikidata.org/entity/Q83038', 'http://www.wikidata.org/entity/Q83059', 'http://www.wikidata.org/entity/Q83184', 'http://www.wikidata.org/entity/Q862', 'http://www.wikidata.org/entity/Q8998', 'http://www.wikidata.org/entity/Q93137', 'http://www.wikidata.org/entity/Q93157', 'http://www.wikidata.org/entity/Q93356', 'http://www.wikidata.org/entity/Q9364']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q14280']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q100149428', 'http://www.wikidata.org/entity/Q100159428', 'http://www.wikidata.org/entity/Q100159740', 'http://www.wikidata.org/entity/Q100233973', 'http://www.wikidata.org/entity/Q100234056', 'http://www.wikidata.org/entity/Q100255739', 'http://www.wikidata.org/entity/Q100268106', 'http://www.wikidata.org/entity/Q100718552', 'http://www.wikidata.org/entity/Q100718566', 'http://www.wikidata.org/entity/Q100719358', 'http://www.wikidata.org/entity/Q100720834', 'http://www.wikidata.org/entity/Q100721176', 'http://www.wikidata.org/entity/Q100723552', 'http://www.wikidata.org/entity/Q100723716', 'http://www.wikidata.org/entity/Q100741864', 'http://www.wikidata.org/entity/Q100747188', 'http://www.wikidata.org/entity/Q100751464', 'http://www.wikidata.org/entity/Q100753561', 'http://www.wikidata.org/entity/Q100753967', 'http://www.wikidata.org/entity/Q100759002', 'http://www.wikidata.org/entity/Q100759458', 'http://www.wikidata.org/entity/Q100761605', 'http://www.wikidata.org/entity/Q100766876', 'http://www.wikidata.org/entity/Q100766896', 'http://www.wikidata.org/entity/Q100768753', 'http://www.wikidata.org/entity/Q100769398', 'http://www.wikidata.org/entity/Q100769656', 'http://www.wikidata.org/entity/Q100769714', 'http://www.wikidata.org/entity/Q100770818', 'http://www.wikidata.org/entity/Q100771309', 'http://www.wikidata.org/entity/Q100771698', 'http://www.wikidata.org/entity/Q100774597', 'http://www.wikidata.org/entity/Q100775493', 'http://www.wikidata.org/entity/Q100776047', 'http://www.wikidata.org/entity/Q100776321', 'http://www.wikidata.org/entity/Q100779909', 'http://www.wikidata.org/entity/Q100779924', 'http://www.wikidata.org/entity/Q100781781', 'http://www.wikidata.org/entity/Q100782988', 'http://www.wikidata.org/entity/Q100784464', 'http://www.wikidata.org/entity/Q100785232', 'http://www.wikidata.org/entity/Q100787706', 'http://www.wikidata.org/entity/Q100789903', 'http://www.wikidata.org/entity/Q100792158', 'http://www.wikidata.org/entity/Q100793447', 'http://www.wikidata.org/entity/Q100793756', 'http://www.wikidata.org/entity/Q100794271', 'http://www.wikidata.org/entity/Q100794996', 'http://www.wikidata.org/entity/Q100795231', 'http://www.wikidata.org/entity/Q100796414', 'http://www.wikidata.org/entity/Q100796580', 'http://www.wikidata.org/entity/Q100798031', 'http://www.wikidata.org/entity/Q100798302', 'http://www.wikidata.org/entity/Q100798640', 'http://www.wikidata.org/entity/Q100798922', 'http://www.wikidata.org/entity/Q100801342', 'http://www.wikidata.org/entity/Q100802268', 'http://www.wikidata.org/entity/Q100805424', 'http://www.wikidata.org/entity/Q100806402', 'http://www.wikidata.org/entity/Q100806617', 'http://www.wikidata.org/entity/Q100808900', 'http://www.wikidata.org/entity/Q100819704', 'http://www.wikidata.org/entity/Q100868390', 'http://www.wikidata.org/entity/Q100869366', 'http://www.wikidata.org/entity/Q100870520', 'http://www.wikidata.org/entity/Q100871090', 'http://www.wikidata.org/entity/Q100874361', 'http://www.wikidata.org/entity/Q100874765', 'http://www.wikidata.org/entity/Q100876161', 'http://www.wikidata.org/entity/Q100877072', 'http://www.wikidata.org/entity/Q100880911', 'http://www.wikidata.org/entity/Q100884422', 'http://www.wikidata.org/entity/Q100884743', 'http://www.wikidata.org/entity/Q100888756', 'http://www.wikidata.org/entity/Q100889736', 'http://www.wikidata.org/entity/Q100890360', 'http://www.wikidata.org/entity/Q100892340', 'http://www.wikidata.org/entity/Q100892958', 'http://www.wikidata.org/entity/Q100893004', 'http://www.wikidata.org/entity/Q100893220', 'http://www.wikidata.org/entity/Q100893856', 'http://www.wikidata.org/entity/Q100894411', 'http://www.wikidata.org/entity/Q100894417', 'http://www.wikidata.org/entity/Q100905529', 'http://www.wikidata.org/entity/Q100907217', 'http://www.wikidata.org/entity/Q100907395', 'http://www.wikidata.org/entity/Q100907778', 'http://www.wikidata.org/entity/Q100911168', 'http://www.wikidata.org/entity/Q100911312', 'http://www.wikidata.org/entity/Q100914058', 'http://www.wikidata.org/entity/Q100917187', 'http://www.wikidata.org/entity/Q100917336', 'http://www.wikidata.org/entity/Q100918539', 'http://www.wikidata.org/entity/Q100919123', 'http://www.wikidata.org/entity/Q100922723', 'http://www.wikidata.org/entity/Q100922847', 'http://www.wikidata.org/entity/Q100924163', 'http://www.wikidata.org/entity/Q100925349', 'http://www.wikidata.org/entity/Q100929792', 'http://www.wikidata.org/entity/Q100930247', 'http://www.wikidata.org/entity/Q100934497', 'http://www.wikidata.org/entity/Q100935310', 'http://www.wikidata.org/entity/Q100935721', 'http://www.wikidata.org/entity/Q100935989', 'http://www.wikidata.org/entity/Q100939038', 'http://www.wikidata.org/entity/Q100940712', 'http://www.wikidata.org/entity/Q100942674', 'http://www.wikidata.org/entity/Q1009435', 'http://www.wikidata.org/entity/Q100944889', 'http://www.wikidata.org/entity/Q100951898', 'http://www.wikidata.org/entity/Q100952898', 'http://www.wikidata.org/entity/Q100958614', 'http://www.wikidata.org/entity/Q100961111', 'http://www.wikidata.org/entity/Q100963772', 'http://www.wikidata.org/entity/Q100963834', 'http://www.wikidata.org/entity/Q100964085', 'http://www.wikidata.org/entity/Q100981581', 'http://www.wikidata.org/entity/Q100981767', 'http://www.wikidata.org/entity/Q100981910', 'http://www.wikidata.org/entity/Q100987430', 'http://www.wikidata.org/entity/Q100987618', 'http://www.wikidata.org/entity/Q101072753', 'http://www.wikidata.org/entity/Q101385200', 'http://www.wikidata.org/entity/Q102007152', 'http://www.wikidata.org/entity/Q102282451', 'http://www.wikidata.org/entity/Q102400266', 'http://www.wikidata.org/entity/Q10261637', 'http://www.wikidata.org/entity/Q102955', 'http://www.wikidata.org/entity/Q10307612', 'http://www.wikidata.org/entity/Q1032471', 'http://www.wikidata.org/entity/Q1032693', 'http://www.wikidata.org/entity/Q1034012', 'http://www.wikidata.org/entity/Q1039453', 'http://www.wikidata.org/entity/Q104165992', 'http://www.wikidata.org/entity/Q104166462', 'http://www.wikidata.org/entity/Q104361', 'http://www.wikidata.org/entity/Q104375', 'http://www.wikidata.org/entity/Q104870461', 'http://www.wikidata.org/entity/Q105101971', 'http://www.wikidata.org/entity/Q105102366', 'http://www.wikidata.org/entity/Q105394701', 'http://www.wikidata.org/entity/Q1053971', 'http://www.wikidata.org/entity/Q105465865', 'http://www.wikidata.org/entity/Q105501473', 'http://www.wikidata.org/entity/Q1055229', 'http://www.wikidata.org/entity/Q105622399', 'http://www.wikidata.org/entity/Q105632314', 'http://www.wikidata.org/entity/Q1056335', 'http://www.wikidata.org/entity/Q1056746', 'http://www.wikidata.org/entity/Q1058595', 'http://www.wikidata.org/entity/Q1061731', 'http://www.wikidata.org/entity/Q1061776', 'http://www.wikidata.org/entity/Q106279', 'http://www.wikidata.org/entity/Q106338045', 'http://www.wikidata.org/entity/Q106448577', 'http://www.wikidata.org/entity/Q106451', 'http://www.wikidata.org/entity/Q106473444', 'http://www.wikidata.org/entity/Q106519612', 'http://www.wikidata.org/entity/Q106524904', 'http://www.wikidata.org/entity/Q106616516', 'http://www.wikidata.org/entity/Q106627490', 'http://www.wikidata.org/entity/Q106635227', 'http://www.wikidata.org/entity/Q106660414', 'http://www.wikidata.org/entity/Q106671635', 'http://www.wikidata.org/entity/Q106671703', 'http://www.wikidata.org/entity/Q106677205', 'http://www.wikidata.org/entity/Q106680697', 'http://www.wikidata.org/entity/Q106720122', 'http://www.wikidata.org/entity/Q106778918', 'http://www.wikidata.org/entity/Q106781914', 'http://www.wikidata.org/entity/Q106806341', 'http://www.wikidata.org/entity/Q106817973', 'http://www.wikidata.org/entity/Q106818099', 'http://www.wikidata.org/entity/Q106818169', 'http://www.wikidata.org/entity/Q106818559', 'http://www.wikidata.org/entity/Q106818739', 'http://www.wikidata.org/entity/Q106825117', 'http://www.wikidata.org/entity/Q106963403', 'http://www.wikidata.org/entity/Q106963499', 'http://www.wikidata.org/entity/Q106977533', 'http://www.wikidata.org/entity/Q107093740', 'http://www.wikidata.org/entity/Q107118384', 'http://www.wikidata.org/entity/Q107151952', 'http://www.wikidata.org/entity/Q107152625', 'http://www.wikidata.org/entity/Q107178241', 'http://www.wikidata.org/entity/Q107178269', 'http://www.wikidata.org/entity/Q107185703', 'http://www.wikidata.org/entity/Q107207765', 'http://www.wikidata.org/entity/Q107253264', 'http://www.wikidata.org/entity/Q107287851', 'http://www.wikidata.org/entity/Q107287942', 'http://www.wikidata.org/entity/Q107305764', 'http://www.wikidata.org/entity/Q107309089', 'http://www.wikidata.org/entity/Q107314128', 'http://www.wikidata.org/entity/Q107327655', 'http://www.wikidata.org/entity/Q107337984', 'http://www.wikidata.org/entity/Q107344389', 'http://www.wikidata.org/entity/Q107355280', 'http://www.wikidata.org/entity/Q107363162', 'http://www.wikidata.org/entity/Q107369214', 'http://www.wikidata.org/entity/Q107378373', 'http://www.wikidata.org/entity/Q107419969', 'http://www.wikidata.org/entity/Q107422938', 'http://www.wikidata.org/entity/Q107504019', 'http://www.wikidata.org/entity/Q107504309', 'http://www.wikidata.org/entity/Q107530183', 'http://www.wikidata.org/entity/Q107549720', 'http://www.wikidata.org/entity/Q107585991', 'http://www.wikidata.org/entity/Q107586380', 'http://www.wikidata.org/entity/Q107588913', 'http://www.wikidata.org/entity/Q1075978', 'http://www.wikidata.org/entity/Q1075984', 'http://www.wikidata.org/entity/Q1076942', 'http://www.wikidata.org/entity/Q1077184', 'http://www.wikidata.org/entity/Q1077193', 'http://www.wikidata.org/entity/Q1077292', 'http://www.wikidata.org/entity/Q1077437', 'http://www.wikidata.org/entity/Q107752619', 'http://www.wikidata.org/entity/Q1077607', 'http://www.wikidata.org/entity/Q1077613', 'http://www.wikidata.org/entity/Q1077634', 'http://www.wikidata.org/entity/Q108112686', 'http://www.wikidata.org/entity/Q108113174', 'http://www.wikidata.org/entity/Q108152227', 'http://www.wikidata.org/entity/Q108170613', 'http://www.wikidata.org/entity/Q1081976', 'http://www.wikidata.org/entity/Q108291', 'http://www.wikidata.org/entity/Q108293322', 'http://www.wikidata.org/entity/Q1082954', 'http://www.wikidata.org/entity/Q108307199', 'http://www.wikidata.org/entity/Q10831393', 'http://www.wikidata.org/entity/Q108314957', 'http://www.wikidata.org/entity/Q108333', 'http://www.wikidata.org/entity/Q108444645', 'http://www.wikidata.org/entity/Q108464191', 'http://www.wikidata.org/entity/Q108502580', 'http://www.wikidata.org/entity/Q108560985', 'http://www.wikidata.org/entity/Q108561381', 'http://www.wikidata.org/entity/Q108650400', 'http://www.wikidata.org/entity/Q108697360', 'http://www.wikidata.org/entity/Q1086985', 'http://www.wikidata.org/entity/Q108733631', 'http://www.wikidata.org/entity/Q108757835', 'http://www.wikidata.org/entity/Q108761974', 'http://www.wikidata.org/entity/Q10877291', 'http://www.wikidata.org/entity/Q108809817', 'http://www.wikidata.org/entity/Q108822235', 'http://www.wikidata.org/entity/Q108823000', 'http://www.wikidata.org/entity/Q108858175', 'http://www.wikidata.org/entity/Q108870659', 'http://www.wikidata.org/entity/Q108915542', 'http://www.wikidata.org/entity/Q1089188', 'http://www.wikidata.org/entity/Q10917065', 'http://www.wikidata.org/entity/Q1091785', 'http://www.wikidata.org/entity/Q109336431', 'http://www.wikidata.org/entity/Q1093458', 'http://www.wikidata.org/entity/Q109425776', 'http://www.wikidata.org/entity/Q109463904', 'http://www.wikidata.org/entity/Q109468740', 'http://www.wikidata.org/entity/Q109524417', 'http://www.wikidata.org/entity/Q109540571', 'http://www.wikidata.org/entity/Q109540589', 'http://www.wikidata.org/entity/Q109544933', 'http://www.wikidata.org/entity/Q109553878', 'http://www.wikidata.org/entity/Q109728722', 'http://www.wikidata.org/entity/Q1097554', 'http://www.wikidata.org/entity/Q109780503', 'http://www.wikidata.org/entity/Q109780810', 'http://www.wikidata.org/entity/Q109829337', 'http://www.wikidata.org/entity/Q109829404', 'http://www.wikidata.org/entity/Q10983515', 'http://www.wikidata.org/entity/Q109851380', 'http://www.wikidata.org/entity/Q109853277', 'http://www.wikidata.org/entity/Q109933627', 'http://www.wikidata.org/entity/Q109967900', 'http://www.wikidata.org/entity/Q109983648', 'http://www.wikidata.org/entity/Q110024215', 'http://www.wikidata.org/entity/Q110070283', 'http://www.wikidata.org/entity/Q1101335', 'http://www.wikidata.org/entity/Q11019119', 'http://www.wikidata.org/entity/Q1102088', 'http://www.wikidata.org/entity/Q110252034', 'http://www.wikidata.org/entity/Q110271131', 'http://www.wikidata.org/entity/Q110322226', 'http://www.wikidata.org/entity/Q1103788', 'http://www.wikidata.org/entity/Q1103821', 'http://www.wikidata.org/entity/Q110457791', 'http://www.wikidata.org/entity/Q110546841', 'http://www.wikidata.org/entity/Q110619093', 'http://www.wikidata.org/entity/Q110619637', 'http://www.wikidata.org/entity/Q110637006', 'http://www.wikidata.org/entity/Q110664194', 'http://www.wikidata.org/entity/Q110914467', 'http://www.wikidata.org/entity/Q110983769', 'http://www.wikidata.org/entity/Q111008', 'http://www.wikidata.org/entity/Q111025353', 'http://www.wikidata.org/entity/Q111025906', 'http://www.wikidata.org/entity/Q111031599', 'http://www.wikidata.org/entity/Q111049849', 'http://www.wikidata.org/entity/Q111049873', 'http://www.wikidata.org/entity/Q111049881', 'http://www.wikidata.org/entity/Q111049894', 'http://www.wikidata.org/entity/Q1111021', 'http://www.wikidata.org/entity/Q1111167', 'http://www.wikidata.org/entity/Q1111983', 'http://www.wikidata.org/entity/Q1112016', 'http://www.wikidata.org/entity/Q1112771', 'http://www.wikidata.org/entity/Q1112996', 'http://www.wikidata.org/entity/Q1113963', 'http://www.wikidata.org/entity/Q1114256', 'http://www.wikidata.org/entity/Q111508849', 'http://www.wikidata.org/entity/Q1115784', 'http://www.wikidata.org/entity/Q1115975', 'http://www.wikidata.org/entity/Q1116123', 'http://www.wikidata.org/entity/Q111631232', 'http://www.wikidata.org/entity/Q111765767', 'http://www.wikidata.org/entity/Q1117816', 'http://www.wikidata.org/entity/Q1118250', 'http://www.wikidata.org/entity/Q1119099', 'http://www.wikidata.org/entity/Q1119288', 'http://www.wikidata.org/entity/Q112062135', 'http://www.wikidata.org/entity/Q112073280', 'http://www.wikidata.org/entity/Q112080040', 'http://www.wikidata.org/entity/Q1120880', 'http://www.wikidata.org/entity/Q112148353', 'http://www.wikidata.org/entity/Q112183592', 'http://www.wikidata.org/entity/Q112435', 'http://www.wikidata.org/entity/Q112449', 'http://www.wikidata.org/entity/Q1125388', 'http://www.wikidata.org/entity/Q1125913', 'http://www.wikidata.org/entity/Q1125990', 'http://www.wikidata.org/entity/Q112625459', 'http://www.wikidata.org/entity/Q1126347', 'http://www.wikidata.org/entity/Q112659357', 'http://www.wikidata.org/entity/Q112687854', 'http://www.wikidata.org/entity/Q112726895', 'http://www.wikidata.org/entity/Q112894312', 'http://www.wikidata.org/entity/Q11289612', 'http://www.wikidata.org/entity/Q112913802', 'http://www.wikidata.org/entity/Q11299322', 'http://www.wikidata.org/entity/Q11299342', 'http://www.wikidata.org/entity/Q113112644', 'http://www.wikidata.org/entity/Q113202398', 'http://www.wikidata.org/entity/Q113214570', 'http://www.wikidata.org/entity/Q113215147', 'http://www.wikidata.org/entity/Q1132365', 'http://www.wikidata.org/entity/Q1132507', 'http://www.wikidata.org/entity/Q1132527', 'http://www.wikidata.org/entity/Q1132528', 'http://www.wikidata.org/entity/Q1132658', 'http://www.wikidata.org/entity/Q1132738', 'http://www.wikidata.org/entity/Q1132834', 'http://www.wikidata.org/entity/Q113291458', 'http://www.wikidata.org/entity/Q113292358', 'http://www.wikidata.org/entity/Q113292554', 'http://www.wikidata.org/entity/Q113292603', 'http://www.wikidata.org/entity/Q113298428', 'http://www.wikidata.org/entity/Q1134048', 'http://www.wikidata.org/entity/Q1134258', 'http://www.wikidata.org/entity/Q113494597', 'http://www.wikidata.org/entity/Q113549293', 'http://www.wikidata.org/entity/Q113566316', 'http://www.wikidata.org/entity/Q113569', 'http://www.wikidata.org/entity/Q113576', 'http://www.wikidata.org/entity/Q113649755', 'http://www.wikidata.org/entity/Q113661680', 'http://www.wikidata.org/entity/Q113674416', 'http://www.wikidata.org/entity/Q11379850', 'http://www.wikidata.org/entity/Q1138128', 'http://www.wikidata.org/entity/Q1138514', 'http://www.wikidata.org/entity/Q1138783', 'http://www.wikidata.org/entity/Q11401248', 'http://www.wikidata.org/entity/Q114032183', 'http://www.wikidata.org/entity/Q114045156', 'http://www.wikidata.org/entity/Q1141637', 'http://www.wikidata.org/entity/Q1142331', 'http://www.wikidata.org/entity/Q114349752', 'http://www.wikidata.org/entity/Q114566945', 'http://www.wikidata.org/entity/Q114667692', 'http://www.wikidata.org/entity/Q1147376', 'http://www.wikidata.org/entity/Q114857113', 'http://www.wikidata.org/entity/Q114863064', 'http://www.wikidata.org/entity/Q11500583', 'http://www.wikidata.org/entity/Q1150317', 'http://www.wikidata.org/entity/Q115102703', 'http://www.wikidata.org/entity/Q1151037', 'http://www.wikidata.org/entity/Q115119808', 'http://www.wikidata.org/entity/Q115154999', 'http://www.wikidata.org/entity/Q115161001', 'http://www.wikidata.org/entity/Q115161434', 'http://www.wikidata.org/entity/Q1152506', 'http://www.wikidata.org/entity/Q115475940', 'http://www.wikidata.org/entity/Q115581265', 'http://www.wikidata.org/entity/Q115629', 'http://www.wikidata.org/entity/Q115634', 'http://www.wikidata.org/entity/Q115722', 'http://www.wikidata.org/entity/Q1159084', 'http://www.wikidata.org/entity/Q115915', 'http://www.wikidata.org/entity/Q1160342', 'http://www.wikidata.org/entity/Q116037', 'http://www.wikidata.org/entity/Q116176311', 'http://www.wikidata.org/entity/Q116176433', 'http://www.wikidata.org/entity/Q116185196', 'http://www.wikidata.org/entity/Q116186160', 'http://www.wikidata.org/entity/Q116189529', 'http://www.wikidata.org/entity/Q116195972', 'http://www.wikidata.org/entity/Q116198', 'http://www.wikidata.org/entity/Q116198940', 'http://www.wikidata.org/entity/Q116254', 'http://www.wikidata.org/entity/Q116257813', 'http://www.wikidata.org/entity/Q116431030', 'http://www.wikidata.org/entity/Q1164595', 'http://www.wikidata.org/entity/Q116551', 'http://www.wikidata.org/entity/Q1165980', 'http://www.wikidata.org/entity/Q1166617', 'http://www.wikidata.org/entity/Q116699', 'http://www.wikidata.org/entity/Q116783152', 'http://www.wikidata.org/entity/Q11685267', 'http://www.wikidata.org/entity/Q11693116', 'http://www.wikidata.org/entity/Q11699292', 'http://www.wikidata.org/entity/Q11699400', 'http://www.wikidata.org/entity/Q11702775', 'http://www.wikidata.org/entity/Q117037725', 'http://www.wikidata.org/entity/Q117038081', 'http://www.wikidata.org/entity/Q1170394', 'http://www.wikidata.org/entity/Q11716504', 'http://www.wikidata.org/entity/Q11720871', 'http://www.wikidata.org/entity/Q11721059', 'http://www.wikidata.org/entity/Q117220242', 'http://www.wikidata.org/entity/Q11722423', 'http://www.wikidata.org/entity/Q11722534', 'http://www.wikidata.org/entity/Q11724895', 'http://www.wikidata.org/entity/Q11727964', 'http://www.wikidata.org/entity/Q1173006', 'http://www.wikidata.org/entity/Q117348117', 'http://www.wikidata.org/entity/Q117350394', 'http://www.wikidata.org/entity/Q117360100', 'http://www.wikidata.org/entity/Q11739472', 'http://www.wikidata.org/entity/Q11743625', 'http://www.wikidata.org/entity/Q11748193', 'http://www.wikidata.org/entity/Q11748226', 'http://www.wikidata.org/entity/Q11749180', 'http://www.wikidata.org/entity/Q11749793', 'http://www.wikidata.org/entity/Q11753337', 'http://www.wikidata.org/entity/Q11754931', 'http://www.wikidata.org/entity/Q11754983', 'http://www.wikidata.org/entity/Q11765656', 'http://www.wikidata.org/entity/Q11767971', 'http://www.wikidata.org/entity/Q11768324', 'http://www.wikidata.org/entity/Q11768382', 'http://www.wikidata.org/entity/Q11768625', 'http://www.wikidata.org/entity/Q11770209', 'http://www.wikidata.org/entity/Q11770367', 'http://www.wikidata.org/entity/Q11771408', 'http://www.wikidata.org/entity/Q11778743', 'http://www.wikidata.org/entity/Q11778794', 'http://www.wikidata.org/entity/Q11779346', 'http://www.wikidata.org/entity/Q11781314', 'http://www.wikidata.org/entity/Q11781980', 'http://www.wikidata.org/entity/Q1178241', 'http://www.wikidata.org/entity/Q11790090', 'http://www.wikidata.org/entity/Q11791016', 'http://www.wikidata.org/entity/Q1179612', 'http://www.wikidata.org/entity/Q11798199', 'http://www.wikidata.org/entity/Q118067', 'http://www.wikidata.org/entity/Q11813536', 'http://www.wikidata.org/entity/Q11813953', 'http://www.wikidata.org/entity/Q11813969', 'http://www.wikidata.org/entity/Q11814182', 'http://www.wikidata.org/entity/Q11814272', 'http://www.wikidata.org/entity/Q11814493', 'http://www.wikidata.org/entity/Q11817884', 'http://www.wikidata.org/entity/Q11818115', 'http://www.wikidata.org/entity/Q11818159', 'http://www.wikidata.org/entity/Q118235978', 'http://www.wikidata.org/entity/Q11833807', 'http://www.wikidata.org/entity/Q11835010', 'http://www.wikidata.org/entity/Q11857841', 'http://www.wikidata.org/entity/Q118842860', 'http://www.wikidata.org/entity/Q1188603', 'http://www.wikidata.org/entity/Q11891970', 'http://www.wikidata.org/entity/Q11892200', 'http://www.wikidata.org/entity/Q1189243', 'http://www.wikidata.org/entity/Q118929123', 'http://www.wikidata.org/entity/Q1189516', 'http://www.wikidata.org/entity/Q119478026', 'http://www.wikidata.org/entity/Q1195813', 'http://www.wikidata.org/entity/Q1200325', 'http://www.wikidata.org/entity/Q1200330', 'http://www.wikidata.org/entity/Q1200332', 'http://www.wikidata.org/entity/Q120098', 'http://www.wikidata.org/entity/Q12023140', 'http://www.wikidata.org/entity/Q12058834', 'http://www.wikidata.org/entity/Q1206898', 'http://www.wikidata.org/entity/Q120758808', 'http://www.wikidata.org/entity/Q121345616', 'http://www.wikidata.org/entity/Q121509892', 'http://www.wikidata.org/entity/Q121647', 'http://www.wikidata.org/entity/Q121819110', 'http://www.wikidata.org/entity/Q1225976', 'http://www.wikidata.org/entity/Q1226046', 'http://www.wikidata.org/entity/Q122618263', 'http://www.wikidata.org/entity/Q12269620', 'http://www.wikidata.org/entity/Q1227980', 'http://www.wikidata.org/entity/Q122906791', 'http://www.wikidata.org/entity/Q122917377', 'http://www.wikidata.org/entity/Q122920596', 'http://www.wikidata.org/entity/Q122943752', 'http://www.wikidata.org/entity/Q122952', 'http://www.wikidata.org/entity/Q123040', 'http://www.wikidata.org/entity/Q123146620', 'http://www.wikidata.org/entity/Q123248759', 'http://www.wikidata.org/entity/Q123248763', 'http://www.wikidata.org/entity/Q123248782', 'http://www.wikidata.org/entity/Q123248783', 'http://www.wikidata.org/entity/Q123258476', 'http://www.wikidata.org/entity/Q123258478', 'http://www.wikidata.org/entity/Q123259128', 'http://www.wikidata.org/entity/Q123335401', 'http://www.wikidata.org/entity/Q123379966', 'http://www.wikidata.org/entity/Q12360491', 'http://www.wikidata.org/entity/Q123684928', 'http://www.wikidata.org/entity/Q123741611', 'http://www.wikidata.org/entity/Q1238103', 'http://www.wikidata.org/entity/Q12387305', 'http://www.wikidata.org/entity/Q124048598', 'http://www.wikidata.org/entity/Q124131733', 'http://www.wikidata.org/entity/Q1242197', 'http://www.wikidata.org/entity/Q124328139', 'http://www.wikidata.org/entity/Q124540519', 'http://www.wikidata.org/entity/Q124620825', 'http://www.wikidata.org/entity/Q124637208', 'http://www.wikidata.org/entity/Q124694773', 'http://www.wikidata.org/entity/Q124694878', 'http://www.wikidata.org/entity/Q125017196', 'http://www.wikidata.org/entity/Q125080586', 'http://www.wikidata.org/entity/Q1254600', 'http://www.wikidata.org/entity/Q125563664', 'http://www.wikidata.org/entity/Q125563895', 'http://www.wikidata.org/entity/Q125563998', 'http://www.wikidata.org/entity/Q125569524', 'http://www.wikidata.org/entity/Q126114396', 'http://www.wikidata.org/entity/Q12633139', 'http://www.wikidata.org/entity/Q12633230', 'http://www.wikidata.org/entity/Q12641301', 'http://www.wikidata.org/entity/Q12643733', 'http://www.wikidata.org/entity/Q1264436', 'http://www.wikidata.org/entity/Q126487461', 'http://www.wikidata.org/entity/Q126487462', 'http://www.wikidata.org/entity/Q12649488', 'http://www.wikidata.org/entity/Q12659740', 'http://www.wikidata.org/entity/Q1267570', 'http://www.wikidata.org/entity/Q1267622', 'http://www.wikidata.org/entity/Q126923070', 'http://www.wikidata.org/entity/Q126947594', 'http://www.wikidata.org/entity/Q1270684', 'http://www.wikidata.org/entity/Q1273047', 'http://www.wikidata.org/entity/Q12749074', 'http://www.wikidata.org/entity/Q127561', 'http://www.wikidata.org/entity/Q12756207', 'http://www.wikidata.org/entity/Q1277708', 'http://www.wikidata.org/entity/Q1279010', 'http://www.wikidata.org/entity/Q127925147', 'http://www.wikidata.org/entity/Q1279973', 'http://www.wikidata.org/entity/Q128188', 'http://www.wikidata.org/entity/Q1282320', 'http://www.wikidata.org/entity/Q1282809', 'http://www.wikidata.org/entity/Q128530', 'http://www.wikidata.org/entity/Q12858621', 'http://www.wikidata.org/entity/Q1286476', 'http://www.wikidata.org/entity/Q12875341', 'http://www.wikidata.org/entity/Q12880385', 'http://www.wikidata.org/entity/Q1289729', 'http://www.wikidata.org/entity/Q129041', 'http://www.wikidata.org/entity/Q12911186', 'http://www.wikidata.org/entity/Q1291124', 'http://www.wikidata.org/entity/Q1292529', 'http://www.wikidata.org/entity/Q1293573', 'http://www.wikidata.org/entity/Q1296648', 'http://www.wikidata.org/entity/Q12981769', 'http://www.wikidata.org/entity/Q130215388', 'http://www.wikidata.org/entity/Q130221109', 'http://www.wikidata.org/entity/Q130240633', 'http://www.wikidata.org/entity/Q130242077', 'http://www.wikidata.org/entity/Q130298106', 'http://www.wikidata.org/entity/Q1314733', 'http://www.wikidata.org/entity/Q131942', 'http://www.wikidata.org/entity/Q132208', 'http://www.wikidata.org/entity/Q1327649', 'http://www.wikidata.org/entity/Q1328504', 'http://www.wikidata.org/entity/Q1332856', 'http://www.wikidata.org/entity/Q1334238', 'http://www.wikidata.org/entity/Q1336737', 'http://www.wikidata.org/entity/Q1338315', 'http://www.wikidata.org/entity/Q1339658', 'http://www.wikidata.org/entity/Q13410394', 'http://www.wikidata.org/entity/Q13416839', 'http://www.wikidata.org/entity/Q134183', 'http://www.wikidata.org/entity/Q1343292', 'http://www.wikidata.org/entity/Q13464007', 'http://www.wikidata.org/entity/Q135109', 'http://www.wikidata.org/entity/Q13512907', 'http://www.wikidata.org/entity/Q13515766', 'http://www.wikidata.org/entity/Q135167', 'http://www.wikidata.org/entity/Q1351678', 'http://www.wikidata.org/entity/Q1353620', 'http://www.wikidata.org/entity/Q1355070', 'http://www.wikidata.org/entity/Q13561021', 'http://www.wikidata.org/entity/Q13563911', 'http://www.wikidata.org/entity/Q1356519', 'http://www.wikidata.org/entity/Q13582445', 'http://www.wikidata.org/entity/Q1358452', 'http://www.wikidata.org/entity/Q1359588', 'http://www.wikidata.org/entity/Q13605907', 'http://www.wikidata.org/entity/Q13605931', 'http://www.wikidata.org/entity/Q13605936', 'http://www.wikidata.org/entity/Q13605944', 'http://www.wikidata.org/entity/Q13605975', 'http://www.wikidata.org/entity/Q13605982', 'http://www.wikidata.org/entity/Q13606007', 'http://www.wikidata.org/entity/Q1361081', 'http://www.wikidata.org/entity/Q1362580', 'http://www.wikidata.org/entity/Q1362664', 'http://www.wikidata.org/entity/Q1362904', 'http://www.wikidata.org/entity/Q1363177', 'http://www.wikidata.org/entity/Q1363787', 'http://www.wikidata.org/entity/Q1363884', 'http://www.wikidata.org/entity/Q1363974', 'http://www.wikidata.org/entity/Q1364009', 'http://www.wikidata.org/entity/Q1364223', 'http://www.wikidata.org/entity/Q1365630', 'http://www.wikidata.org/entity/Q1365645', 'http://www.wikidata.org/entity/Q1366501', 'http://www.wikidata.org/entity/Q1370831', 'http://www.wikidata.org/entity/Q13708767', 'http://www.wikidata.org/entity/Q13709114', 'http://www.wikidata.org/entity/Q1370925', 'http://www.wikidata.org/entity/Q1371485', 'http://www.wikidata.org/entity/Q1373712', 'http://www.wikidata.org/entity/Q137450', 'http://www.wikidata.org/entity/Q1375461', 'http://www.wikidata.org/entity/Q1375950', 'http://www.wikidata.org/entity/Q1377443', 'http://www.wikidata.org/entity/Q1380489', 'http://www.wikidata.org/entity/Q1380719', 'http://www.wikidata.org/entity/Q1381445', 'http://www.wikidata.org/entity/Q1381732', 'http://www.wikidata.org/entity/Q13860876', 'http://www.wikidata.org/entity/Q13876407', 'http://www.wikidata.org/entity/Q1387820', 'http://www.wikidata.org/entity/Q13899976', 'http://www.wikidata.org/entity/Q1390262', 'http://www.wikidata.org/entity/Q1392517', 'http://www.wikidata.org/entity/Q13930506', 'http://www.wikidata.org/entity/Q13930814', 'http://www.wikidata.org/entity/Q1393378', 'http://www.wikidata.org/entity/Q1393433', 'http://www.wikidata.org/entity/Q139376', 'http://www.wikidata.org/entity/Q1398536', 'http://www.wikidata.org/entity/Q1401783', 'http://www.wikidata.org/entity/Q1406261', 'http://www.wikidata.org/entity/Q14073727', 'http://www.wikidata.org/entity/Q1407902', 'http://www.wikidata.org/entity/Q1408291', 'http://www.wikidata.org/entity/Q14088570', 'http://www.wikidata.org/entity/Q1413920', 'http://www.wikidata.org/entity/Q14163514', 'http://www.wikidata.org/entity/Q14172158', 'http://www.wikidata.org/entity/Q14172238', 'http://www.wikidata.org/entity/Q1421720', 'http://www.wikidata.org/entity/Q142214', 'http://www.wikidata.org/entity/Q1422575', 'http://www.wikidata.org/entity/Q1424128', 'http://www.wikidata.org/entity/Q1424134', 'http://www.wikidata.org/entity/Q1424165', 'http://www.wikidata.org/entity/Q1424414', 'http://www.wikidata.org/entity/Q1424455', 'http://www.wikidata.org/entity/Q1424462', 'http://www.wikidata.org/entity/Q1424475', 'http://www.wikidata.org/entity/Q1424495', 'http://www.wikidata.org/entity/Q1424502', 'http://www.wikidata.org/entity/Q1429702', 'http://www.wikidata.org/entity/Q14320215', 'http://www.wikidata.org/entity/Q14324145', 'http://www.wikidata.org/entity/Q14324284', 'http://www.wikidata.org/entity/Q14324339', 'http://www.wikidata.org/entity/Q14324358', 'http://www.wikidata.org/entity/Q14324364', 'http://www.wikidata.org/entity/Q14325764', 'http://www.wikidata.org/entity/Q14325768', 'http://www.wikidata.org/entity/Q1432596', 'http://www.wikidata.org/entity/Q14326804', 'http://www.wikidata.org/entity/Q14327036', 'http://www.wikidata.org/entity/Q14327270', 'http://www.wikidata.org/entity/Q14327391', 'http://www.wikidata.org/entity/Q14327750', 'http://www.wikidata.org/entity/Q14329123', 'http://www.wikidata.org/entity/Q14329138', 'http://www.wikidata.org/entity/Q14329365', 'http://www.wikidata.org/entity/Q14329497', 'http://www.wikidata.org/entity/Q14329695', 'http://www.wikidata.org/entity/Q14330245', 'http://www.wikidata.org/entity/Q14330465', 'http://www.wikidata.org/entity/Q14330469', 'http://www.wikidata.org/entity/Q1435883', 'http://www.wikidata.org/entity/Q1438347', 'http://www.wikidata.org/entity/Q1438348', 'http://www.wikidata.org/entity/Q1439529', 'http://www.wikidata.org/entity/Q1439541', 'http://www.wikidata.org/entity/Q14399923', 'http://www.wikidata.org/entity/Q1440606', 'http://www.wikidata.org/entity/Q1441343', 'http://www.wikidata.org/entity/Q1441397', 'http://www.wikidata.org/entity/Q1441492', 'http://www.wikidata.org/entity/Q1441499', 'http://www.wikidata.org/entity/Q1442053', 'http://www.wikidata.org/entity/Q1442329', 'http://www.wikidata.org/entity/Q14425572', 'http://www.wikidata.org/entity/Q14427097', 'http://www.wikidata.org/entity/Q14432081', 'http://www.wikidata.org/entity/Q1444910', 'http://www.wikidata.org/entity/Q1444934', 'http://www.wikidata.org/entity/Q1445196', 'http://www.wikidata.org/entity/Q1445455', 'http://www.wikidata.org/entity/Q1445762', 'http://www.wikidata.org/entity/Q1445827', 'http://www.wikidata.org/entity/Q144703', 'http://www.wikidata.org/entity/Q1449836', 'http://www.wikidata.org/entity/Q1449882', 'http://www.wikidata.org/entity/Q1452892', 'http://www.wikidata.org/entity/Q1453383', 'http://www.wikidata.org/entity/Q1454479', 'http://www.wikidata.org/entity/Q1455079', 'http://www.wikidata.org/entity/Q1458225', 'http://www.wikidata.org/entity/Q1458255', 'http://www.wikidata.org/entity/Q1458276', 'http://www.wikidata.org/entity/Q1458282', 'http://www.wikidata.org/entity/Q1458307', 'http://www.wikidata.org/entity/Q1458320', 'http://www.wikidata.org/entity/Q1458331', 'http://www.wikidata.org/entity/Q1458344', 'http://www.wikidata.org/entity/Q1458359', 'http://www.wikidata.org/entity/Q145840</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q1930']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q1042258', 'http://www.wikidata.org/entity/Q10474461', 'http://www.wikidata.org/entity/Q10509157', 'http://www.wikidata.org/entity/Q105118495', 'http://www.wikidata.org/entity/Q10558160', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q107128661', 'http://www.wikidata.org/entity/Q1096922', 'http://www.wikidata.org/entity/Q1173914', 'http://www.wikidata.org/entity/Q124285622', 'http://www.wikidata.org/entity/Q125118333', 'http://www.wikidata.org/entity/Q125397277', 'http://www.wikidata.org/entity/Q129674231', 'http://www.wikidata.org/entity/Q1356211', 'http://www.wikidata.org/entity/Q1371542', 'http://www.wikidata.org/entity/Q1453597', 'http://www.wikidata.org/entity/Q1507832', 'http://www.wikidata.org/entity/Q15966855', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q1648234', 'http://www.wikidata.org/entity/Q1655475', 'http://www.wikidata.org/entity/Q16598377', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q16944482', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q16977477', 'http://www.wikidata.org/entity/Q16977559', 'http://www.wikidata.org/entity/Q1699362', 'http://www.wikidata.org/entity/Q1703195', 'http://www.wikidata.org/entity/Q17057003', 'http://www.wikidata.org/entity/Q17144475', 'http://www.wikidata.org/entity/Q17279925', 'http://www.wikidata.org/entity/Q17280065', 'http://www.wikidata.org/entity/Q17280963', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q17284928', 'http://www.wikidata.org/entity/Q17298627', 'http://www.wikidata.org/entity/Q17303639', 'http://www.wikidata.org/entity/Q17306893', 'http://www.wikidata.org/entity/Q17327586', 'http://www.wikidata.org/entity/Q17327760', 'http://www.wikidata.org/entity/Q17352178', 'http://www.wikidata.org/entity/Q17352188', 'http://www.wikidata.org/entity/Q1740253', 'http://www.wikidata.org/entity/Q179952', 'http://www.wikidata.org/entity/Q18412697', 'http://www.wikidata.org/entity/Q18515962', 'http://www.wikidata.org/entity/Q18589449', 'http://www.wikidata.org/entity/Q18620693', 'http://www.wikidata.org/entity/Q18811153', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19643722', 'http://www.wikidata.org/entity/Q19643731', 'http://www.wikidata.org/entity/Q19643733', 'http://www.wikidata.org/entity/Q19872307', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q19956753', 'http://www.wikidata.org/entity/Q2018463', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q20986521', 'http://www.wikidata.org/entity/Q2134271', 'http://www.wikidata.org/entity/Q2146518', 'http://www.wikidata.org/entity/Q2161068', 'http://www.wikidata.org/entity/Q2178030', 'http://www.wikidata.org/entity/Q2178054', 'http://www.wikidata.org/entity/Q2277399', 'http://www.wikidata.org/entity/Q2336395', 'http://www.wikidata.org/entity/Q2350107', 'http://www.wikidata.org/entity/Q24266711', 'http://www.wikidata.org/entity/Q24450398', 'http://www.wikidata.org/entity/Q2600084', 'http://www.wikidata.org/entity/Q2601973', 'http://www.wikidata.org/entity/Q2641446', 'http://www.wikidata.org/entity/Q28145338', 'http://www.wikidata.org/entity/Q28145349', 'http://www.wikidata.org/entity/Q28145357', 'http://www.wikidata.org/entity/Q29077561', 'http://www.wikidata.org/entity/Q29161403', 'http://www.wikidata.org/entity/Q302914', 'http://www.wikidata.org/entity/Q304222', 'http://www.wikidata.org/entity/Q30532844', 'http://www.wikidata.org/entity/Q3438358', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q373986', 'http://www.wikidata.org/entity/Q3788418', 'http://www.wikidata.org/entity/Q3805894', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q393288', 'http://www.wikidata.org/entity/Q3984246', 'http://www.wikidata.org/entity/Q4168933', 'http://www.wikidata.org/entity/Q4281245', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q43252374', 'http://www.wikidata.org/entity/Q444083', 'http://www.wikidata.org/entity/Q446027', 'http://www.wikidata.org/entity/Q446040', 'http://www.wikidata.org/entity/Q446060', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q4775558', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q504142', 'http://www.wikidata.org/entity/Q5075274', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q51090087', 'http://www.wikidata.org/entity/Q51090088', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q522722', 'http://www.wikidata.org/entity/Q5257150', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5318734', 'http://www.wikidata.org/entity/Q5341660', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q55183403', 'http://www.wikidata.org/entity/Q5522971', 'http://www.wikidata.org/entity/Q55956335', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q5718354', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q587134', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q5982979', 'http://www.wikidata.org/entity/Q617595', 'http://www.wikidata.org/entity/Q61787980', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6280016', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q633332', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66938881', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q680512', 'http://www.wikidata.org/entity/Q6932071', 'http://www.wikidata.org/entity/Q7087842', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q718040', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7297466', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q736771', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q7428345', 'http://www.wikidata.org/entity/Q7441461', 'http://www.wikidata.org/entity/Q745555', 'http://www.wikidata.org/entity/Q7463162', 'http://www.wikidata.org/entity/Q7463312', 'http://www.wikidata.org/entity/Q7463323', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q7519908', 'http://www.wikidata.org/entity/Q75635489', 'http://www.wikidata.org/entity/Q7608617', 'http://www.wikidata.org/entity/Q7611949', 'http://www.wikidata.org/entity/Q762057', 'http://www.wikidata.org/entity/Q768060', 'http://www.wikidata.org/entity/Q785842', 'http://www.wikidata.org/entity/Q7931678', 'http://www.wikidata.org/entity/Q79981875', 'http://www.wikidata.org/entity/Q8739830', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q8854881', 'http://www.wikidata.org/entity/Q887449', 'http://www.wikidata.org/entity/Q913048', 'http://www.wikidata.org/entity/Q92303735', 'http://www.wikidata.org/entity/Q93318463', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q94606737', 'http://www.wikidata.org/entity/Q949755', 'http://www.wikidata.org/entity/Q951577', 'http://www.wikidata.org/entity/Q952394', 'http://www.wikidata.org/entity/Q968613', 'http://www.wikidata.org/entity/Q983145', 'http://www.wikidata.org/entity/Q983148', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q3808']</t>
-  </si>
-  <si>
     <t>['1811']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q1009884', 'http://www.wikidata.org/entity/Q10335385', 'http://www.wikidata.org/entity/Q10340525', 'http://www.wikidata.org/entity/Q103929698', 'http://www.wikidata.org/entity/Q104865', 'http://www.wikidata.org/entity/Q109490108', 'http://www.wikidata.org/entity/Q109490152', 'http://www.wikidata.org/entity/Q109490367', 'http://www.wikidata.org/entity/Q109490394', 'http://www.wikidata.org/entity/Q109491455', 'http://www.wikidata.org/entity/Q109491621', 'http://www.wikidata.org/entity/Q109491693', 'http://www.wikidata.org/entity/Q109493060', 'http://www.wikidata.org/entity/Q109493064', 'http://www.wikidata.org/entity/Q1100407', 'http://www.wikidata.org/entity/Q1100745', 'http://www.wikidata.org/entity/Q11685717', 'http://www.wikidata.org/entity/Q118114238', 'http://www.wikidata.org/entity/Q118490', 'http://www.wikidata.org/entity/Q12040315', 'http://www.wikidata.org/entity/Q121567180', 'http://www.wikidata.org/entity/Q1243689', 'http://www.wikidata.org/entity/Q13519676', 'http://www.wikidata.org/entity/Q13889299', 'http://www.wikidata.org/entity/Q1406012', 'http://www.wikidata.org/entity/Q152298', 'http://www.wikidata.org/entity/Q152318', 'http://www.wikidata.org/entity/Q154269', 'http://www.wikidata.org/entity/Q157931', 'http://www.wikidata.org/entity/Q159681', 'http://www.wikidata.org/entity/Q16153519', 'http://www.wikidata.org/entity/Q16522978', 'http://www.wikidata.org/entity/Q17426654', 'http://www.wikidata.org/entity/Q17426873', 'http://www.wikidata.org/entity/Q17427763', 'http://www.wikidata.org/entity/Q17593757', 'http://www.wikidata.org/entity/Q18236847', 'http://www.wikidata.org/entity/Q18352451', 'http://www.wikidata.org/entity/Q19366412', 'http://www.wikidata.org/entity/Q202933', 'http://www.wikidata.org/entity/Q203026', 'http://www.wikidata.org/entity/Q21106378', 'http://www.wikidata.org/entity/Q21154027', 'http://www.wikidata.org/entity/Q21481122', 'http://www.wikidata.org/entity/Q21856852', 'http://www.wikidata.org/entity/Q221615', 'http://www.wikidata.org/entity/Q2474284', 'http://www.wikidata.org/entity/Q252726', 'http://www.wikidata.org/entity/Q255764', 'http://www.wikidata.org/entity/Q261731', 'http://www.wikidata.org/entity/Q26255563', 'http://www.wikidata.org/entity/Q2655329', 'http://www.wikidata.org/entity/Q266359', 'http://www.wikidata.org/entity/Q26776784', 'http://www.wikidata.org/entity/Q26837347', 'http://www.wikidata.org/entity/Q280301', 'http://www.wikidata.org/entity/Q281604', 'http://www.wikidata.org/entity/Q28195006', 'http://www.wikidata.org/entity/Q283544', 'http://www.wikidata.org/entity/Q312474', 'http://www.wikidata.org/entity/Q313399', 'http://www.wikidata.org/entity/Q313815', 'http://www.wikidata.org/entity/Q314921', 'http://www.wikidata.org/entity/Q317792', 'http://www.wikidata.org/entity/Q320068', 'http://www.wikidata.org/entity/Q3329196', 'http://www.wikidata.org/entity/Q342338', 'http://www.wikidata.org/entity/Q342953', 'http://www.wikidata.org/entity/Q345288', 'http://www.wikidata.org/entity/Q345658', 'http://www.wikidata.org/entity/Q347977', 'http://www.wikidata.org/entity/Q348205', 'http://www.wikidata.org/entity/Q3492123', 'http://www.wikidata.org/entity/Q3501233', 'http://www.wikidata.org/entity/Q352137', 'http://www.wikidata.org/entity/Q3553627', 'http://www.wikidata.org/entity/Q355433', 'http://www.wikidata.org/entity/Q358525', 'http://www.wikidata.org/entity/Q360038', 'http://www.wikidata.org/entity/Q360060', 'http://www.wikidata.org/entity/Q362180', 'http://www.wikidata.org/entity/Q362819', 'http://www.wikidata.org/entity/Q362998', 'http://www.wikidata.org/entity/Q364451', 'http://www.wikidata.org/entity/Q365317', 'http://www.wikidata.org/entity/Q375659', 'http://www.wikidata.org/entity/Q376688', 'http://www.wikidata.org/entity/Q381541', 'http://www.wikidata.org/entity/Q382150', 'http://www.wikidata.org/entity/Q382184', 'http://www.wikidata.org/entity/Q4098485', 'http://www.wikidata.org/entity/Q4131995', 'http://www.wikidata.org/entity/Q4181402', 'http://www.wikidata.org/entity/Q4196202', 'http://www.wikidata.org/entity/Q431006', 'http://www.wikidata.org/entity/Q432752', 'http://www.wikidata.org/entity/Q433046', 'http://www.wikidata.org/entity/Q434409', 'http://www.wikidata.org/entity/Q434546', 'http://www.wikidata.org/entity/Q434555', 'http://www.wikidata.org/entity/Q440178', 'http://www.wikidata.org/entity/Q44371', 'http://www.wikidata.org/entity/Q446233', 'http://www.wikidata.org/entity/Q446531', 'http://www.wikidata.org/entity/Q446720', 'http://www.wikidata.org/entity/Q447311', 'http://www.wikidata.org/entity/Q448491', 'http://www.wikidata.org/entity/Q448538', 'http://www.wikidata.org/entity/Q448872', 'http://www.wikidata.org/entity/Q449577', 'http://www.wikidata.org/entity/Q450834', 'http://www.wikidata.org/entity/Q451259', 'http://www.wikidata.org/entity/Q453764', 'http://www.wikidata.org/entity/Q455669', 'http://www.wikidata.org/entity/Q457064', 'http://www.wikidata.org/entity/Q461807', 'http://www.wikidata.org/entity/Q465461', 'http://www.wikidata.org/entity/Q465724', 'http://www.wikidata.org/entity/Q465748', 'http://www.wikidata.org/entity/Q466069', 'http://www.wikidata.org/entity/Q466075', 'http://www.wikidata.org/entity/Q466483', 'http://www.wikidata.org/entity/Q466513', 'http://www.wikidata.org/entity/Q467623', 'http://www.wikidata.org/entity/Q467732', 'http://www.wikidata.org/entity/Q468250', 'http://www.wikidata.org/entity/Q468258', 'http://www.wikidata.org/entity/Q470256', 'http://www.wikidata.org/entity/Q471486', 'http://www.wikidata.org/entity/Q4715991', 'http://www.wikidata.org/entity/Q472491', 'http://www.wikidata.org/entity/Q472497', 'http://www.wikidata.org/entity/Q487622', 'http://www.wikidata.org/entity/Q487984', 'http://www.wikidata.org/entity/Q488008', 'http://www.wikidata.org/entity/Q488043', 'http://www.wikidata.org/entity/Q4994273', 'http://www.wikidata.org/entity/Q502101', 'http://www.wikidata.org/entity/Q50379072', 'http://www.wikidata.org/entity/Q50379654', 'http://www.wikidata.org/entity/Q50379760', 'http://www.wikidata.org/entity/Q50379793', 'http://www.wikidata.org/entity/Q520334', 'http://www.wikidata.org/entity/Q520760', 'http://www.wikidata.org/entity/Q535157', 'http://www.wikidata.org/entity/Q535172', 'http://www.wikidata.org/entity/Q535234', 'http://www.wikidata.org/entity/Q535280', 'http://www.wikidata.org/entity/Q535831', 'http://www.wikidata.org/entity/Q538639', 'http://www.wikidata.org/entity/Q539358', 'http://www.wikidata.org/entity/Q555679', 'http://www.wikidata.org/entity/Q560360', 'http://www.wikidata.org/entity/Q592219', 'http://www.wikidata.org/entity/Q620632', 'http://www.wikidata.org/entity/Q641389', 'http://www.wikidata.org/entity/Q6740250', 'http://www.wikidata.org/entity/Q706809', 'http://www.wikidata.org/entity/Q708452', 'http://www.wikidata.org/entity/Q708484', 'http://www.wikidata.org/entity/Q708489', 'http://www.wikidata.org/entity/Q7086024', 'http://www.wikidata.org/entity/Q708689', 'http://www.wikidata.org/entity/Q709634', 'http://www.wikidata.org/entity/Q711010', 'http://www.wikidata.org/entity/Q722142', 'http://www.wikidata.org/entity/Q725659', 'http://www.wikidata.org/entity/Q7258156', 'http://www.wikidata.org/entity/Q727902', 'http://www.wikidata.org/entity/Q728371', 'http://www.wikidata.org/entity/Q730170', 'http://www.wikidata.org/entity/Q730220', 'http://www.wikidata.org/entity/Q7327', 'http://www.wikidata.org/entity/Q7454059', 'http://www.wikidata.org/entity/Q8070504', 'http://www.wikidata.org/entity/Q820606', 'http://www.wikidata.org/entity/Q834956', 'http://www.wikidata.org/entity/Q85859878', 'http://www.wikidata.org/entity/Q85861593', 'http://www.wikidata.org/entity/Q85867505', 'http://www.wikidata.org/entity/Q927249', 'http://www.wikidata.org/entity/Q928034', 'http://www.wikidata.org/entity/Q956160', 'http://www.wikidata.org/entity/Q9601011', 'http://www.wikidata.org/entity/Q963226', 'http://www.wikidata.org/entity/Q975217']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q188492']</t>
-  </si>
-  <si>
-    <t>['9209944']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
-  </si>
-  <si>
-    <t>['381488']</t>
-  </si>
-  <si>
-    <t>['34112.5']</t>
-  </si>
-  <si>
     <t>['352600']</t>
   </si>
   <si>
@@ -1522,78 +1283,6 @@
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q2420722']</t>
-  </si>
-  <si>
-    <t>['No answer']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q116281', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1320797', 'http://www.wikidata.org/entity/Q1338682', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q1720634', 'http://www.wikidata.org/entity/Q18211660', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q234114', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q238168', 'http://www.wikidata.org/entity/Q2439878', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q2933924', 'http://www.wikidata.org/entity/Q2965115', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q3177047', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q3300864', 'http://www.wikidata.org/entity/Q3441429', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q3559413', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q378538', 'http://www.wikidata.org/entity/Q3852420', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q42329064', 'http://www.wikidata.org/entity/Q442025', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q504028', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q5407123', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q6308308', 'http://www.wikidata.org/entity/Q6811353']</t>
-  </si>
-  <si>
-    <t>['Query failed']</t>
-  </si>
-  <si>
-    <t>['1986-02-28T00:00:00Z']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q898618']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106435366', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q1324130']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q3506451']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q115934307', 'http://www.wikidata.org/entity/Q123134707', 'http://www.wikidata.org/entity/Q123352703', 'http://www.wikidata.org/entity/Q1262898', 'http://www.wikidata.org/entity/Q18011281', 'http://www.wikidata.org/entity/Q20714076', 'http://www.wikidata.org/entity/Q286493', 'http://www.wikidata.org/entity/Q54869832', 'http://www.wikidata.org/entity/Q60789091', 'http://www.wikidata.org/entity/Q7847774', 'http://www.wikidata.org/entity/Q844324']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q945543']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q1661478', 'http://www.wikidata.org/entity/Q19978123', 'http://www.wikidata.org/entity/Q200982', 'http://www.wikidata.org/entity/Q3013206', 'http://www.wikidata.org/entity/Q883628']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata.org/entity/Q113499458', 'http://www.wikidata.org/entity/Q1135034', 'http://www.wikidata.org/entity/Q11354348', 'http://www.wikidata.org/entity/Q113549137', 'http://www.wikidata.org/entity/Q113576165', 'http://www.wikidata.org/entity/Q113581609', 'http://www.wikidata.org/entity/Q113627236', 'http://www.wikidata.org/entity/Q113631347', 'http://www.wikidata.org/entity/Q113631375', 'http://www.wikidata.org/entity/Q113631508', 'http://www.wikidata.org/entity/Q113631563', 'http://www.wikidata.org/entity/Q113631569', 'http://www.wikidata.org/entity/Q113674106', 'http://www.wikidata.org/entity/Q11371391', 'http://www.wikidata.org/entity/Q113714633', 'http://www.wikidata.org/entity/Q11387117', 'http://www.wikidata.org/entity/Q113903854', 'http://www.wikidata.org/entity/Q11391277', 'http://www.wikidata.org/entity/Q1139591', 'http://www.wikidata.org/entity/Q11409712', 'http://www.wikidata.org/entity/Q114315605', 'http://www.wikidata.org/entity/Q114658295', 'http://www.wikidata.org/entity/Q1147008', 'http://www.wikidata.org/entity/Q114779611', 'http://www.wikidata.org/entity/Q114780741', 'http://www.wikidata.org/entity/Q114781351', 'http://www.wikidata.org/entity/Q114840373', 'http://www.wikidata.org/entity/Q114863314', 'http://www.wikidata.org/entity/Q115152362', 'http://www.wikidata.org/entity/Q115209188', 'http://www.wikidata.org/entity/Q115214299', 'http://www.wikidata.org/entity/Q115259173', 'http://www.wikidata.org/entity/Q115294651', 'http://www.wikidata.org/entity/Q115327380', 'http://www.wikidata.org/entity/Q1153848', 'http://www.wikidata.org/entity/Q11545488', 'http://www.wikidata.org/entity/Q115516436', 'http://www.wikidata.org/entity/Q115526578', 'http://www.wikidata.org/entity/Q115624997', 'http://www.wikidata.org/entity/Q115628690', 'http://www.wikidata.org/entity/Q11567159', 'http://www.wikidata.org/entity/Q11590237', 'http://www.wikidata.org/entity/Q115937074', 'http://www.wikidata.org/entity/Q11606287', 'http://www.wikidata.org/entity/Q116113833', 'http://www.wikidata.org/entity/Q116349234', 'http://www.wikidata.org/entity/Q116767714', 'http://www.wikidata.org/entity/Q116790237', 'http://www.wikidata.org/entity/Q116846825', 'http://www.wikidata.org/entity/Q116858640', 'http://www.wikidata.org/entity/Q116938985', 'http://www.wikidata.org/entity/Q11695705', 'http://www.wikidata.org/entity/Q11695707', 'http://www.wikidata.org/entity/Q11695708', 'http://www.wikidata.org/entity/Q11695711', 'http://www.wikidata.org/entity/Q11695713', 'http://www.wikidata.org/entity/Q11695714', 'http://www.wikidata.org/entity/Q11695716', 'http://www.wikidata.org/entity/Q11695717', 'http://www.wikidata.org/entity/Q11695718', 'http://www.wikidata.org/entity/Q11695721', 'http://www.wikidata.org/entity/Q11695722', 'http://www.wikidata.org/entity/Q11695723', 'http://www.wikidata.org/entity/Q116973585', 'http://www.wikidata.org/entity/Q116980492', 'http://www.wikidata.org/entity/Q117035968', 'http://www.wikidata.org/entity/Q11703716', 'http://www.wikidata.org/entity/Q117040282', 'http://www.wikidata.org/entity/Q11706236', 'http://www.wikidata.org/entity/Q1170632', 'http://www.wikidata.org/entity/Q117361394', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117455751', 'http://www.wikidata.org/entity/Q117587270', 'http://www.wikidata.org/entity/Q117711867', 'http://www.wikidata.org/entity/Q11783773', 'http://www.wikidata.org/entity/Q11783808', 'http://www.wikidata.org/entity/Q117844480', 'http://www.wikidata.org/entity/Q11789695', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q11789707', 'http://www.wikidata.org/entity/Q11802972', 'http://www.wikidata.org/entity/Q118224784', 'http://www.wikidata.org/entity/Q118288532', 'http://www.wikidata.org/entity/Q118314773', 'http://www.wikidata.org/entity/Q118330188', 'http://www.wikidata.org/entity/Q118369207', 'http://www.wikidata.org/entity/Q118744251', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118947258', 'http://www.wikidata.org/entity/Q119105010', 'http://www.wikidata.org/entity/Q11919090', 'http://www.wikidata.org/entity/Q119241124', 'http://www.wikidata.org/entity/Q119243817', 'http://www.wikidata.org/entity/Q119285617', 'http://www.wikidata.org/entity/Q119348301', 'http://www.wikidata.org/entity/Q119397277', 'http://www.wikidata.org/entity/Q1194059', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q119806244', 'http://www.wikidata.org/entity/Q119853995', 'http://www.wikidata.org/entity/Q120068971', 'http://www.wikidata.org/entity/Q120146391', 'http://www.wikidata.org/entity/Q120403912', 'http://www.wikidata.org/entity/Q120486552', 'http://www.wikidata.org/entity/Q12060958', 'http://www.wikidata.org/entity/Q120823815', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q12090941', 'http://www.wikidata.org/entity/Q1209940', 'http://www.wikidata.org/entity/Q12100125', 'http://www.wikidata.org/entity/Q12100126', 'http://www.wikidata.org/entity/Q12100128', 'http://www.wikidata.org/entity/Q12100132', 'http://www.wikidata.org/entity/Q12100138', 'http://www.wikidata.org/entity/Q12100141', 'http://www.wikidata.org/entity/Q12100152', 'http://www.wikidata.org/entity/Q12100160', 'http://www.wikidata.org/entity/Q12131090', 'http://www.wikidata.org/entity/Q121322780', 'http://www.wikidata.org/entity/Q121393', 'http://www.wikidata.org/entity/Q12149731', 'http://www.wikidata.org/entity/Q12174361', 'http://www.wikidata.org/entity/Q121759535', 'http://www.wikidata.org/entity/Q121852183', 'http://www.wikidata.org/entity/Q121864546', 'http://www.wikidata.org/entity/Q121991381', 'http://www.wikidata.org/entity/Q122057715', 'http://www.wikidata.org/entity/Q122058042', 'http://www.wikidata.org/entity/Q122144115', 'http://www.wikidata.org/entity/Q122199376', 'http://www.wikidata.org/entity/Q122341064', 'http://www.wikidata.org/entity/Q122460010', 'http://www.wikidata.org/entity/Q122495885', 'http://www.wikidata.org/entity/Q1226845', 'http://www.wikidata.org/entity/Q122767100', 'http://www.wikidata.org/entity/Q12284238', 'http://www.wikidata.org/entity/Q12286265', 'http://www.wikidata.org/entity/Q12286390', 'http://www.wikidata.org/entity/Q12289674', 'http://www.wikidata.org/entity/Q12292151', 'http://www.wikidata.org/entity/Q12293119', 'http://www.wikidata.org/entity/Q12293243', 'http://www.wikidata.org/entity/Q12299913', 'http://www.wikidata.org/entity/Q123111964', 'http://www.wikidata.org/entity/Q1231872', 'http://www.wikidata.org/entity/Q123253535', 'http://www.wikidata.org/entity/Q123265528', 'http://www.wikidata.org/entity/Q123450314', 'http://www.wikidata.org/entity/Q123515600', 'http://www.wikidata.org/entity/Q12353618', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q123757853', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q12407917', 'http://www.wikidata.org/entity/Q12407923', 'http://www.wikidata.org/entity/Q1241858', 'http://www.wikidata.org/entity/Q12422844', 'http://www.wikidata.org/entity/Q124250314', 'http://www.wikidata.org/entity/Q124250951', 'http://www.wikidata.org/entity/Q124255532', 'http://www.wikidata.org/entity/Q124318023', 'http://www.wikidata.org/entity/Q124352953', 'http://www.wikidata.org/entity/Q124367000', 'http://www.wikidata.org/entity/Q12438967', 'http://www.wikidata.org/entity/Q124408550', 'http://www.wikidata.org/entity/Q12441237', 'http://www.wikidata.org/entity/Q124498473', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q124568688', 'http://www.wikidata.org/entity/Q124747000', 'http://www.wikidata.org/entity/Q124799998', 'http://www.wikidata.org/entity/Q124830290', 'http://www.wikidata.org/entity/Q124854084', 'http://www.wikidata.org/entity/Q12513670', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q1252585', 'http://www.wikidata.org/entity/Q1252596', 'http://www.wikidata.org/entity/Q125505711', 'http://www.wikidata.org/entity/Q1255099', 'http://www.wikidata.org/entity/Q125524227', 'http://www.wikidata.org/entity/Q125613295', 'http://www.wikidata.org/entity/Q125912847', 'http://www.wikidata.org/entity/Q125928736', 'http://www.wikidata.org/entity/Q12601109', 'http://www.wikidata.org/entity/Q12602481', 'http://www.wikidata.org/entity/Q126083299', 'http://www.wikidata.org/entity/Q126083373', 'http://www.wikidata.org/entity/Q126113071', 'http://www.wikidata.org/entity/Q12614307', 'http://www.wikidata.org/entity/Q12614875', 'http://www.wikidata.org/entity/Q126192995', 'http://www.wikidata.org/entity/Q126260200', 'http://www.wikidata.org/entity/Q12650252', 'http://www.wikidata.org/entity/Q12663498', 'http://www.wikidata.org/entity/Q126708915', 'http://www.wikidata.org/entity/Q126902823', 'http://www.wikidata.org/entity/Q126903060', 'http://www.wikidata.org/entity/Q126910647', 'http://www.wikidata.org/entity/Q126948133', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q1270782', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12719109', 'http://www.wikidata.org/entity/Q127393146', 'http://www.wikidata.org/entity/Q127502506', 'http://www.wikidata.org/entity/Q12750635', 'http://www.wikidata.org/entity/Q127597840', 'http://www.wikidata.org/entity/Q127798249', 'http://www.wikidata.org/entity/Q12787253', 'http://www.wikidata.org/entity/Q12787255', 'http://www.wikidata.org/entity/Q127922454', 'http://www.wikidata.org/entity/Q12803843', 'http://www.wikidata.org/entity/Q12836659', 'http://www.wikidata.org/entity/Q12859165', 'http://www.wikidata.org/entity/Q12864158', 'http://www.wikidata.org/entity/Q1290276', 'http://www.wikidata.org/entity/Q12927731', 'http://www.wikidata.org/entity/Q129726', 'http://www.wikidata.org/entity/Q12986877', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q12989464', 'http://www.wikidata.org/entity/Q13020973', 'http://www.wikidata.org/entity/Q130215597', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237543', 'http://www.wikidata.org/entity/Q130237544', 'http://www.wikidata.org/entity/Q130237545', 'http://www.wikidata.org/entity/Q130237546', 'http://www.wikidata.org/entity/Q130237547', 'http://www.wikidata.org/entity/Q130237548', 'http://www.wikidata.org/entity/Q130237549', 'http://www.wikidata.org/entity/Q130237550', 'http://www.wikidata.org/entity/Q130237552', 'http://www.wikidata.org/entity/Q130237553', 'http://www.wikidata.org/entity/Q130237554', 'http://www.wikidata.org/entity/Q130237555', 'http://www.wikidata.org/entity/Q130237556', 'http://www.wikidata.org/entity/Q130237557', 'http://www.wikidata.org/entity/Q130237558', 'http://www.wikidata.org/entity/Q130237559', 'http://www.wikidata.org/entity/Q130237560', 'http://www.wikidata.org/entity/Q130237561', 'http://www.wikidata.org/entity/Q130237562', 'http://www.wikidata.org/entity/Q130237563', 'http://www.wikidata.org/entity/Q130237564', 'http://www.wikidata.org/entity/Q130237565', 'http://www.wikidata.org/entity/Q130237566', 'http://www.wikidata.org/entity/Q130237567', 'http://www.wikidata.org/entity/Q130237570', 'http://www.wikidata.org/entity/Q130237571', 'http://www.wikidata.org/entity/Q130237572', 'http://www.wikidata.org/entity/Q130237573', 'http://www.wikidata.org/entity/Q130237574', 'http://www.wikidata.org/entity/Q130237575', 'http://www.wikidata.org/entity/Q130237576', 'http://www.wikidata.org/entity/Q130237577', 'http://www.wikidata.org/entity/Q130237578', 'http://www.wikidata.org/entity/Q130237579', 'http://www.wikidata.org/entity/Q130237581', 'http://www.wikidata.org/entity/Q130237582', 'http://www.wikidata.org/entity/Q130237584', 'http://www.wikidata.org/entity/Q130237585', 'http://www.wikidata.org/entity/Q130237587', 'http://www.wikidata.org/entity/Q130237588', 'http://www.wikidata.org/entity/Q130237589', 'http://www.wikidata.org/entity/Q130237591', 'http://www.wikidata.org/entity/Q130237592', 'http://www.wikidata.org/entity/Q130237593', 'http://www.wikidata.org/entity/Q130237594', 'http://www.wikidata.org/entity/Q130237597', 'http://www.wikidata.org/entity/Q130237598', 'http://www.wikidata.org/entity/Q130237599', 'http://www.wikidata.org/entity/Q130237601', 'http://www.wikidata.org/entity/Q130237602', 'http://www.wikidata.org/entity/Q130237603', 'http://www.wikidata.org/entity/Q130237604', 'http://www.wikidata.org/entity/Q130237605', 'http://www.wikidata.org/entity/Q130237607', 'http://www.wikidata.org/entity/Q130237608', 'http://www.wikidata.org/entity/Q130237609', 'http://www.wikidata.org/entity/Q130237611', 'http://www.wikidata.org/entity/Q130237612', 'http://www.wikidata.org/entity/Q130237613', 'http://www.wikidata.org/entity/Q130237615', 'http://www.wikidata.org/entity/Q130237616', 'http://www.wikidata.org/entity/Q130237617', 'http://www.wikidata.org/entity/Q130237618', 'http://www.wikidata.org/entity/Q130237619', 'http://www.wikidata.org/entity/Q130237620', 'http://www.wikidata.org/entity/Q130237621', 'http://www.wikidata.org/entity/Q130237623', 'http://www.wikidata.org/entity/Q130237624', 'http://www.wikidata.org/entity/Q130237625', 'http://www.wikidata.org/entity/Q130237626', 'http://www.wikidata.org/entity/Q130237627', 'http://www.wikidata.org/entity/Q130237628', 'http://www.wikidata.org/entity/Q130237629', 'http://www.wikidata.org/entity/Q130237630', 'http://www.wikidata.org</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q96452']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q468067']</t>
-  </si>
-  <si>
-    <t>['1487']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q20494829']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q252', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q159']</t>
   </si>
   <si>
     <t>None</t>
@@ -1601,24 +1290,216 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 94,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 392,\n        "stopIndex": 405\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 76,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 374,\n        "stopIndex": 387\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 44,\n        "query": "SELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 44,\n        "stopIndex": 50\n    },\n    "query": "SELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"}\\": mismatched input \'}\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 105,\n        "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }",\n        "startIndex": 403,\n        "stopIndex": 403\n    },\n    "query": "\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 51,\n        "query": "SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q38111 . }",\n        "startIndex": 51,\n        "stopIndex": 57\n    },\n    "query": "SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q38111 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date. }",\n        "startIndex": 30,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34851 ; wdt:P161 wd:Q151973 . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34851 ; wdt:P161 wd:Q151973 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 35,\n        "query": "SELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 35,\n        "stopIndex": 44\n    },\n    "query": "SELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 32,\n        "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1",\n        "startIndex": 32,\n        "stopIndex": 39\n    },\n    "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?spouse WHERE { ?spouse wdt:P26 wd:Q37079. }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?spouse WHERE { ?spouse wdt:P26 wd:Q37079. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 . ?uri wdt:P448 wd:Q177477 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 . ?uri wdt:P448 wd:Q177477 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Token \\"}\\": mismatched input \'}\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 105,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }",\n        "startIndex": 105,\n        "stopIndex": 105\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P161 wd:Q485310 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P161 wd:Q485310 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }",\n        "startIndex": 29,\n        "stopIndex": 36\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q649 ; wdt:P31 wd:Q10843402 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q649 ; wdt:P31 wd:Q10843402 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502. ?uri wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502. ?uri wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 31,\n        "query": "SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }",\n        "startIndex": 31,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 56,\n        "query": "SELECT DISTINCT ?capital WHERE { VALUES (?himalayas) { (wd:Q105981852) (wd:Q26235529) (wd:Q5451) } ?country wdt:P17 ?himalayas . ?country wdt:P36 ?capital . }",\n        "startIndex": 56,\n        "stopIndex": 68\n    },\n    "query": "SELECT DISTINCT ?capital WHERE { VALUES (?himalayas) { (wd:Q105981852) (wd:Q26235529) (wd:Q5451) } ?country wdt:P17 ?himalayas . ?country wdt:P36 ?capital . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 42,\n        "query": "SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 . }",\n        "startIndex": 42,\n        "stopIndex": 48\n    },\n    "query": "SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }",\n        "startIndex": 30,\n        "stopIndex": 39\n    },\n    "query": "SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 wd:Q64 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 wd:Q64 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge wdt:P177 ?seine . FILTER(?seine IN (wd:Q1142326, wd:Q1471)) }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge wdt:P177 ?seine . FILTER(?seine IN (wd:Q1142326, wd:Q1471)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 35,\n        "query": "SELECT ?musician WHERE { ?musician wdt:P106 wd:Q639669 . ?book wdt:P50 ?musician . ?book wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?book)) LIMIT 1",\n        "startIndex": 35,\n        "stopIndex": 42\n    },\n    "query": "SELECT ?musician WHERE { ?musician wdt:P106 wd:Q639669 . ?book wdt:P50 ?musician . ?book wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?book)) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 50,\n        "query": "SELECT DISTINCT ?uri WHERE { VALUES ?bandleader { wd:Q5280538 wd:Q806349 } VALUES ?trumpet { wd:Q119621 wd:Q8338 } ?uri wdt:P106 ?bandleader ; wdt:P1303 ?trumpet . }",\n        "startIndex": 50,\n        "stopIndex": 60\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { VALUES ?bandleader { wd:Q5280538 wd:Q806349 } VALUES ?trumpet { wd:Q119621 wd:Q8338 } ?uri wdt:P106 ?bandleader ; wdt:P1303 ?trumpet . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 . ?uri wdt:P2048 ?n . FILTER (?n &gt; 2.0) }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 . ?uri wdt:P2048 ?n . FILTER (?n &gt; 2.0) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }",\n        "startIndex": 49,\n        "stopIndex": 55\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184 } UNION { ?uri wdt:P27 wd:Q159 } UNION { ?uri wdt:P27 wd:Q15180 } }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184 } UNION { ?uri wdt:P27 wd:Q159 } UNION { ?uri wdt:P27 wd:Q15180 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT DISTINCT ?number WHERE { VALUES ?entity { wd:Q70096636 wd:Q37156 } ?entity wdt:P1128 ?number. }",\n        "startIndex": 49,\n        "stopIndex": 60\n    },\n    "query": "SELECT DISTINCT ?number WHERE { VALUES ?entity { wd:Q70096636 wd:Q37156 } ?entity wdt:P1128 ?number. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 53,\n        "query": "SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }",\n        "startIndex": 53,\n        "stopIndex": 65\n    },\n    "query": "SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
+Response:
+b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri. }",\n        "startIndex": 29,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>Wrong Property</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Missing P31</t>
+  </si>
+  <si>
+    <t>Wrong Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1677,17 +1558,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1725,7 +1614,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1759,6 +1648,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1793,9 +1683,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1968,14 +1859,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1997,2308 +1890,2612 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="F4" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="F6" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" t="s">
         <v>312</v>
       </c>
-      <c r="E7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" t="s">
-        <v>313</v>
-      </c>
       <c r="E8" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="F8" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" t="s">
+        <v>423</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F10" t="s">
+        <v>424</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" t="s">
+        <v>420</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" t="s">
+        <v>420</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" t="s">
         <v>314</v>
       </c>
-      <c r="E9" t="s">
-        <v>314</v>
-      </c>
-      <c r="F9" t="s">
-        <v>431</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E14" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" t="s">
         <v>315</v>
       </c>
-      <c r="E10" t="s">
-        <v>410</v>
-      </c>
-      <c r="F10" t="s">
-        <v>431</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E12" t="s">
-        <v>407</v>
-      </c>
-      <c r="F12" t="s">
-        <v>431</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" t="s">
-        <v>407</v>
-      </c>
-      <c r="F13" t="s">
-        <v>431</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14" t="s">
-        <v>411</v>
-      </c>
-      <c r="F14" t="s">
-        <v>431</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" t="s">
-        <v>320</v>
-      </c>
       <c r="E15" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F15" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E16" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="F16" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E17" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="F17" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E18" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="F18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E19" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="F19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E20" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="F21" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E22" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F22" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E23" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="F23" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E24" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="F24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E25" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F25" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E26" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F26" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E27" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F27" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E28" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F28" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E29" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F29" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E30" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F30" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="E31" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="F31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="E32" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="F32" t="s">
         <v>431</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E33" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F33" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="E34" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="F34" t="s">
+        <v>432</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E35" t="s">
+        <v>382</v>
+      </c>
+      <c r="F35" t="s">
+        <v>420</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" t="s">
+        <v>383</v>
+      </c>
+      <c r="F36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" t="s">
+        <v>312</v>
+      </c>
+      <c r="E37" t="s">
+        <v>384</v>
+      </c>
+      <c r="F37" t="s">
         <v>434</v>
       </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" t="s">
-        <v>340</v>
-      </c>
-      <c r="E35" t="s">
-        <v>417</v>
-      </c>
-      <c r="F35" t="s">
-        <v>431</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" t="s">
-        <v>241</v>
-      </c>
-      <c r="D36" t="s">
-        <v>341</v>
-      </c>
-      <c r="E36" t="s">
-        <v>407</v>
-      </c>
-      <c r="F36" t="s">
-        <v>431</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" t="s">
-        <v>242</v>
-      </c>
-      <c r="D37" t="s">
-        <v>342</v>
-      </c>
-      <c r="E37" t="s">
-        <v>418</v>
-      </c>
-      <c r="F37" t="s">
-        <v>431</v>
-      </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="E38" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="F38" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="E39" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="F39" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E40" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F40" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="E41" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="F41" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="E42" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="F42" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="E43" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="F43" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E44" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="F44" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="E45" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="F45" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="E46" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="F46" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="E47" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="F47" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E48" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="F48" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E49" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="F49" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="E50" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="F50" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="E51" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="E52" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="F52" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E53" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="E54" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F54" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="E55" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="F55" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="E56" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="F56" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="E57" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="F57" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="E58" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="F58" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="E59" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="F59" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="E60" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="F60" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="E61" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="F61" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="E62" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="F62" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="E63" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="F63" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="E64" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="F64" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="E65" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="F65" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="E66" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="F66" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="E67" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F67" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="E68" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F68" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="E69" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="F69" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="E70" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="F70" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="E71" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="F71" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="E72" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="F72" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="E73" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="F73" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="E74" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="F74" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="E75" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="F75" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="E76" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="F76" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="E77" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="F77" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="E78" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F78" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D79" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="E79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F79" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="E80" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="F80" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="E81" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F81" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>387</v>
+        <v>312</v>
       </c>
       <c r="E82" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F82" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="E83" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="F83" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="E84" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="F84" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="E85" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F85" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="E86" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="F86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="E87" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="F87" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="E88" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F88" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="E89" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="F89" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="E90" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="F90" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="E91" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="F91" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="E92" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="F92" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="E93" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="F93" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="E94" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="F94" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="E95" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F95" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="E96" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F96" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>402</v>
+        <v>312</v>
       </c>
       <c r="E97" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="F97" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>403</v>
+        <v>312</v>
       </c>
       <c r="E98" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="F98" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="E99" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="F99" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="E100" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F100" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="E101" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="F101" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata/CoT_mistral_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata/CoT_mistral_wikidata_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-dbpedia-wikidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50CFB96-9461-4774-8EA8-50949BA4C56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AE3F53-A8A6-4865-B060-8A54BE7AF9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="445">
   <si>
     <t>Question</t>
   </si>
@@ -349,306 +349,6 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?founder WHERE { VALUES ?penguinBooks { wd:Q1336200 wd:Q3374730 } ?penguinBooks wdt:P112 ?founder. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q2001 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?musical WHERE { ?musical wdt:P31 wd:Q2743 ; wdt:P86 wd:Q2808 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q40984 wdt:P178 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wd:Q16297 ; wdt:P161 ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q38111 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34851 ; wdt:P161 wd:Q151973 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?budget WHERE { wd:Q2608065 wdt:P2769 ?budget . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album wdt:P175 wd:Q303 ; wdt:P577 ?date ; wdt:P264 ?label . } ORDER BY ASC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { VALUES ?bandleader { wd:Q5280538 wd:Q806349 } VALUES ?trumpet { wd:Q119621 wd:Q8338 } ?uri wdt:P106 ?bandleader ; wdt:P1303 ?trumpet . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?value WHERE { wd:Q1207989 wdt:P2048 ?value . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P131 wd:Q38 ; wdt:P2044 ?num . } ORDER BY DESC(?num) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?business WHERE { ?business wdt:P127 wd:Q22686 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?spouse WHERE { ?spouse wdt:P26 wd:Q37079. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wd:Q5401 wdt:P1082 ?population. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Author WHERE { wd:Q726382 wdt:P50 ?Author . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wdt:P569 ?date. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q148 wdt:P38 ?currency . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x } LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 . ?uri wdt:P448 wd:Q177477 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?developer WHERE { wd:Q131007 wdt:P178 ?developer. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 wdt:P69 ?university . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P161 wd:Q485310 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P31 wd:Q6256 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P177 ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q649 ; wdt:P31 wd:Q10843402 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?movie WHERE { ?movie wdt:P31 wd:Q11424 . ?movie wdt:P161 wd:Q103894 . ?movie wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502. ?uri wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { { ?uri wdt:P31 wd:Q5 } UNION { ?uri wdt:P31 wd:Q215627 } ?uri wdt:P19 wd:Q160544 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { wd:Q34969 wdt:P40 ?child. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wd:Q58226 wdt:P2044 ?ele. } LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q5806 wdt:P17 ?country. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?author WHERE { wd:Q1163227 wdt:P50 ?author }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wd:Q40912 wdt:P19 ?place . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q515 ; wdt:P1082 ?pop . } ORDER BY ASC(?pop) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q8704 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q312&gt; &lt;http://www.wikidata.org/prop/direct/P2295&gt; ?ni. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q91 wdt:P20 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?capital WHERE { VALUES (?himalayas) { (wd:Q105981852) (wd:Q26235529) (wd:Q5451) } ?country wdt:P17 ?himalayas . ?country wdt:P36 ?capital . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q6386177 wdt:P17 ?country. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q41421 wdt:P2048 ?height . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 wdt:P50 ?person . ?person wdt:P135 ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?architect WHERE { wd:Q125006 wdt:P84 ?architect. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?composer WHERE { wd:Q23572 wdt:P86 ?composer. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P57 wd:Q56094 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?birthName WHERE { wd:Q23215 wdt:P1477 ?birthName . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?album WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?releaseDate . } ORDER BY ASC(?releaseDate) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q213 wdt:P38 ?currency }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 wd:Q64 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge wdt:P177 ?seine . FILTER(?seine IN (wd:Q1142326, wd:Q1471)) }</t>
-  </si>
-  <si>
-    <t>SELECT ?musician WHERE { ?musician wdt:P106 wd:Q639669 . ?book wdt:P50 ?musician . ?book wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?book)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { VALUES ?bandleader { wd:Q5280538 wd:Q806349 } VALUES ?trumpet { wd:Q119621 wd:Q8338 } ?uri wdt:P106 ?bandleader ; wdt:P1303 ?trumpet . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 . ?uri wdt:P2048 ?n . FILTER (?n &gt; 2.0) }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q40523 . ?film wdt:P161 wd:Q48410 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q16 wdt:P36 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q937857 ; wdt:P19 wd:Q233 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital . }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184 } UNION { ?uri wdt:P27 wd:Q159 } UNION { ?uri wdt:P27 wd:Q15180 } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?population WHERE { wd:Q1489 wdt:P1082 ?population. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q2695156 wdt:P170 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { VALUES ?australia { wd:Q25907685 wd:Q408 wd:Q3960 } ?australia wdt:P36 ?capital . ?capital wdt:P1082 ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?tarea WHERE { wd:Q1198 wdt:P2046 ?tarea }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?number WHERE { VALUES ?entity { wd:Q70096636 wd:Q37156 } ?entity wdt:P1128 ?number. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q104123 wdt:P2769 ?n . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q6256 ; wdt:P2046 ?n . } ORDER BY DESC(?n) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?AlmaMater WHERE { wd:Q567 wdt:P69 ?AlmaMater. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri. }</t>
-  </si>
-  <si>
     <t>SELECT ?o1 WHERE { &lt;http://www.wikidata.org/entity/Q1336200&gt;  &lt;http://www.wikidata.org/prop/direct/P112&gt;  ?o1 .  }</t>
   </si>
   <si>
@@ -1286,213 +986,984 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Wrong Property</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Missing P31</t>
+  </si>
+  <si>
+    <t>Wrong Entity</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Property treated as Entity</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?founder WHERE { VALUES ?penguinBooks { wd:Q1336200 wd:Q3374730 } ?penguinBooks wdt:P112 ?founder. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q2001 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?musical WHERE { ?musical wdt:P31 wd:Q2743 ; wdt:P86 wd:Q2808 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q40984 wdt:P178 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wd:Q16297 ; wdt:P161 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY DESC(?elevation) LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 94,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 392,\n        "stopIndex": 405\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q38111 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date. }</t>
+  </si>
+  <si>
+    <t>['1986-02-28T00:00:00Z']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34851 ; wdt:P161 wd:Q151973 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?budget WHERE { wd:Q2608065 wdt:P2769 ?budget . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album wdt:P175 wd:Q303 ; wdt:P577 ?date ; wdt:P264 ?label . } ORDER BY ASC(?date) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { VALUES ?bandleader { wd:Q5280538 wd:Q806349 } VALUES ?trumpet { wd:Q119621 wd:Q8338 } ?uri wdt:P106 ?bandleader ; wdt:P1303 ?trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 44,\n        "query": "SELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 44,\n        "stopIndex": 50\n    },\n    "query": "SELECT DISTINCT ?uri ?uriLabel WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 76,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 374,\n        "stopIndex": 387\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1324130']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?value WHERE { wd:Q1207989 wdt:P2048 ?value . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P131 wd:Q38 ; wdt:P2044 ?num . } ORDER BY DESC(?num) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?business WHERE { ?business wdt:P127 wd:Q22686 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?spouse WHERE { ?spouse wdt:P26 wd:Q37079. }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wd:Q5401 wdt:P1082 ?population. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Author WHERE { wd:Q726382 wdt:P50 ?Author . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wdt:P569 ?date. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q148 wdt:P38 ?currency . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 . ?uri wdt:P448 wd:Q177477 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?developer WHERE { wd:Q131007 wdt:P178 ?developer. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 51,\n        "query": "SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q38111 . }",\n        "startIndex": 51,\n        "stopIndex": 57\n    },\n    "query": "SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q38111 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date. }",\n        "startIndex": 30,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34851 ; wdt:P161 wd:Q151973 . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34851 ; wdt:P161 wd:Q151973 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 35,\n        "query": "SELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 35,\n        "stopIndex": 44\n    },\n    "query": "SELECT DISTINCT ?birthYear WHERE { wd:Q241665 wdt:P569 ?birthYear . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 32,\n        "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1",\n        "startIndex": 32,\n        "stopIndex": 39\n    },\n    "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?spouse WHERE { ?spouse wdt:P26 wd:Q37079. }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?spouse WHERE { ?spouse wdt:P26 wd:Q37079. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 . ?uri wdt:P448 wd:Q177477 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291 . ?uri wdt:P448 wd:Q177477 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"}\\": mismatched input \'}\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 105,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }",\n        "startIndex": 105,\n        "stopIndex": 105\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P161 wd:Q485310 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P161 wd:Q485310 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }",\n        "startIndex": 29,\n        "stopIndex": 36\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q649 ; wdt:P31 wd:Q10843402 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q649 ; wdt:P31 wd:Q10843402 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502. ?uri wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502. ?uri wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 31,\n        "query": "SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }",\n        "startIndex": 31,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 56,\n        "query": "SELECT DISTINCT ?capital WHERE { VALUES (?himalayas) { (wd:Q105981852) (wd:Q26235529) (wd:Q5451) } ?country wdt:P17 ?himalayas . ?country wdt:P36 ?capital . }",\n        "startIndex": 56,\n        "stopIndex": 68\n    },\n    "query": "SELECT DISTINCT ?capital WHERE { VALUES (?himalayas) { (wd:Q105981852) (wd:Q26235529) (wd:Q5451) } ?country wdt:P17 ?himalayas . ?country wdt:P36 ?capital . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 42,\n        "query": "SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 . }",\n        "startIndex": 42,\n        "stopIndex": 48\n    },\n    "query": "SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }",\n        "startIndex": 30,\n        "stopIndex": 39\n    },\n    "query": "SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 wd:Q64 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 wd:Q64 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge wdt:P177 ?seine . FILTER(?seine IN (wd:Q1142326, wd:Q1471)) }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge wdt:P177 ?seine . FILTER(?seine IN (wd:Q1142326, wd:Q1471)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 35,\n        "query": "SELECT ?musician WHERE { ?musician wdt:P106 wd:Q639669 . ?book wdt:P50 ?musician . ?book wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?book)) LIMIT 1",\n        "startIndex": 35,\n        "stopIndex": 42\n    },\n    "query": "SELECT ?musician WHERE { ?musician wdt:P106 wd:Q639669 . ?book wdt:P50 ?musician . ?book wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?book)) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 50,\n        "query": "SELECT DISTINCT ?uri WHERE { VALUES ?bandleader { wd:Q5280538 wd:Q806349 } VALUES ?trumpet { wd:Q119621 wd:Q8338 } ?uri wdt:P106 ?bandleader ; wdt:P1303 ?trumpet . }",\n        "startIndex": 50,\n        "stopIndex": 60\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { VALUES ?bandleader { wd:Q5280538 wd:Q806349 } VALUES ?trumpet { wd:Q119621 wd:Q8338 } ?uri wdt:P106 ?bandleader ; wdt:P1303 ?trumpet . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 . ?uri wdt:P2048 ?n . FILTER (?n &gt; 2.0) }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 . ?uri wdt:P2048 ?n . FILTER (?n &gt; 2.0) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }",\n        "startIndex": 49,\n        "stopIndex": 55\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184 } UNION { ?uri wdt:P27 wd:Q159 } UNION { ?uri wdt:P27 wd:Q15180 } }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184 } UNION { ?uri wdt:P27 wd:Q159 } UNION { ?uri wdt:P27 wd:Q15180 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT DISTINCT ?number WHERE { VALUES ?entity { wd:Q70096636 wd:Q37156 } ?entity wdt:P1128 ?number. }",\n        "startIndex": 49,\n        "stopIndex": 60\n    },\n    "query": "SELECT DISTINCT ?number WHERE { VALUES ?entity { wd:Q70096636 wd:Q37156 } ?entity wdt:P1128 ?number. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 53,\n        "query": "SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }",\n        "startIndex": 53,\n        "stopIndex": 65\n    },\n    "query": "SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri. }",\n        "startIndex": 29,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>Wrong Property</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Missing P31</t>
-  </si>
-  <si>
-    <t>Wrong Entity</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"}\\": mismatched input \'}\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 105,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }",\n        "startIndex": 403,\n        "stopIndex": 403\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q4830453 . ?uri wdt:P452 ?industry . { ?industry wd:Q854995 } UNION { ?industry wd:Q37038 } UNION { ?industry wd:Q1286627 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 wdt:P69 ?university . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P161 wd:Q485310 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P31 wd:Q6256 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P177 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q649 ; wdt:P31 wd:Q10843402 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?movie WHERE { ?movie wdt:P31 wd:Q11424 . ?movie wdt:P161 wd:Q103894 . ?movie wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502. ?uri wdt:P2044 ?elevation. } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q945543']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { { ?uri wdt:P31 wd:Q5 } UNION { ?uri wdt:P31 wd:Q215627 } ?uri wdt:P19 wd:Q160544 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { wd:Q34969 wdt:P40 ?child. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wd:Q58226 wdt:P2044 ?ele. } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q5806 wdt:P17 ?country. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?author WHERE { wd:Q1163227 wdt:P50 ?author }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wd:Q40912 wdt:P19 ?place . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q515 ; wdt:P1082 ?pop . } ORDER BY ASC(?pop) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q8704 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q1661478', 'http://www.wikidata.org/entity/Q19978123', 'http://www.wikidata.org/entity/Q200982', 'http://www.wikidata.org/entity/Q3013206', 'http://www.wikidata.org/entity/Q883628']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q312&gt; &lt;http://www.wikidata.org/prop/direct/P2295&gt; ?ni. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q91 wdt:P20 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?capital WHERE { VALUES (?himalayas) { (wd:Q105981852) (wd:Q26235529) (wd:Q5451) } ?country wdt:P17 ?himalayas . ?country wdt:P36 ?capital . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q6386177 wdt:P17 ?country. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q41421 wdt:P2048 ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?country WHERE { ?country wdt:P38 wd:Q861690 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 wdt:P50 ?person . ?person wdt:P135 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?architect WHERE { wd:Q125006 wdt:P84 ?architect. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?composer WHERE { wd:Q23572 wdt:P86 ?composer. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P57 wd:Q56094 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?birthName WHERE { wd:Q23215 wdt:P1477 ?birthName . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?album WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?releaseDate . } ORDER BY ASC(?releaseDate) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q213 wdt:P38 ?currency }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 wd:Q64 . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q96452']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?bridge WHERE { ?bridge wdt:P31 wd:Q12280 . ?bridge wdt:P177 ?seine . FILTER(?seine IN (wd:Q1142326, wd:Q1471)) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?musician WHERE { ?musician wdt:P106 wd:Q639669 . ?book wdt:P50 ?musician . ?book wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?book)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q468067']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 ; wdt:P166 wd:Q37922 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q596 wdt:P61 ?discoverer. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { VALUES ?bandleader { wd:Q5280538 wd:Q806349 } VALUES ?trumpet { wd:Q119621 wd:Q8338 } ?uri wdt:P106 ?bandleader ; wdt:P1303 ?trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 . ?uri wdt:P2048 ?n . FILTER (?n &gt; 2.0) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q40523 . ?film wdt:P161 wd:Q48410 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q16 wdt:P36 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q937857 ; wdt:P19 wd:Q233 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1009 wdt:P36 ?capital . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }</t>
+  </si>
+  <si>
+    <t>['1487']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184 } UNION { ?uri wdt:P27 wd:Q159 } UNION { ?uri wdt:P27 wd:Q15180 } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?population WHERE { wd:Q1489 wdt:P1082 ?population. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q2695156 wdt:P170 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { VALUES ?australia { wd:Q25907685 wd:Q408 wd:Q3960 } ?australia wdt:P36 ?capital . ?capital wdt:P1082 ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?tarea WHERE { wd:Q1198 wdt:P2046 ?tarea }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?number WHERE { VALUES ?entity { wd:Q70096636 wd:Q37156 } ?entity wdt:P1128 ?number. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q104123 wdt:P2769 ?n . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q20494829']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q252', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q6256 ; wdt:P2046 ?n . } ORDER BY DESC(?n) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?AlmaMater WHERE { wd:Q567 wdt:P69 ?AlmaMater. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q111135 wdt:P170 ?uri. }</t>
   </si>
 </sst>
 </file>
@@ -1860,15 +2331,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1893,25 +2362,34 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1920,24 +2398,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" t="s">
-        <v>309</v>
-      </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1946,50 +2424,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>310</v>
-      </c>
       <c r="E4" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>211</v>
       </c>
-      <c r="D5" t="s">
-        <v>311</v>
-      </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1998,258 +2479,273 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>421</v>
+        <v>320</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>213</v>
       </c>
-      <c r="D7" t="s">
-        <v>313</v>
-      </c>
       <c r="E7" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
-        <v>422</v>
+        <v>337</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="E9" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="F9" t="s">
-        <v>423</v>
+        <v>320</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="E10" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="F10" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F11" t="s">
-        <v>425</v>
+        <v>320</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="F13" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
-        <v>220</v>
-      </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="F14" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I14" t="s">
+        <v>324</v>
+      </c>
+      <c r="J14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="C15" t="s">
-        <v>221</v>
-      </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2258,128 +2754,137 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
       <c r="D16" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="E16" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="F16" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="I16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
       <c r="D17" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="E17" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
-        <v>426</v>
+        <v>320</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" t="s">
-        <v>224</v>
-      </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="F18" t="s">
-        <v>427</v>
+        <v>349</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" t="s">
-        <v>225</v>
-      </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="E19" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="F19" t="s">
-        <v>428</v>
+        <v>320</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
-        <v>226</v>
-      </c>
       <c r="D20" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2388,50 +2893,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
       <c r="D21" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="F21" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2440,76 +2945,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
+        <v>355</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
       <c r="D23" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="E23" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="F23" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="E24" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="F24" t="s">
-        <v>429</v>
+        <v>320</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>358</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="F25" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2518,24 +3026,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2544,24 +3052,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>360</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="F27" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2570,24 +3078,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
       <c r="D28" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="F28" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2596,24 +3104,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
       <c r="D29" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="E29" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2622,24 +3130,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="F30" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2648,76 +3156,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
-        <v>237</v>
-      </c>
       <c r="D31" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E31" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="F31" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I31" t="s">
+        <v>321</v>
+      </c>
+      <c r="J31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
       <c r="D32" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="E32" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="F32" t="s">
-        <v>431</v>
+        <v>320</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="F33" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2726,180 +3240,207 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
       <c r="D34" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="F34" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I34" t="s">
+        <v>328</v>
+      </c>
+      <c r="J34" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>369</v>
+      </c>
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>241</v>
-      </c>
       <c r="D35" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="F35" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
       <c r="D36" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="F36" t="s">
-        <v>433</v>
+        <v>320</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>371</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>243</v>
-      </c>
       <c r="D37" t="s">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="E37" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="F37" t="s">
-        <v>434</v>
+        <v>320</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I37" t="s">
+        <v>324</v>
+      </c>
+      <c r="J37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F38" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
       <c r="D39" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="E39" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="F39" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="E40" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="F40" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2908,50 +3449,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="F41" t="s">
-        <v>436</v>
+        <v>320</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
       <c r="D42" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="F42" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -2960,50 +3504,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
+        <v>378</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
       <c r="D43" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="E43" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="F43" t="s">
-        <v>437</v>
+        <v>320</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I43" t="s">
+        <v>321</v>
+      </c>
+      <c r="J43" t="s">
+        <v>324</v>
+      </c>
+      <c r="K43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>250</v>
-      </c>
       <c r="D44" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="E44" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="F44" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -3012,50 +3565,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
       <c r="D45" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="F45" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="I45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
+        <v>382</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
       <c r="D46" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="E46" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="F46" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -3064,24 +3620,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>383</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
-        <v>253</v>
-      </c>
       <c r="D47" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -3090,24 +3646,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
-        <v>254</v>
-      </c>
       <c r="D48" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="E48" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="F48" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -3116,24 +3672,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
+        <v>385</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>255</v>
-      </c>
       <c r="D49" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="E49" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3142,24 +3698,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
+        <v>386</v>
+      </c>
+      <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>256</v>
-      </c>
       <c r="D50" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="E50" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3168,50 +3724,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
+        <v>387</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="C51" t="s">
-        <v>257</v>
-      </c>
       <c r="D51" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="E51" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="F51" t="s">
-        <v>438</v>
+        <v>320</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
+        <v>388</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
-        <v>258</v>
-      </c>
       <c r="D52" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="F52" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -3220,24 +3776,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>389</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
       <c r="D53" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -3246,76 +3802,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
+        <v>390</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
       <c r="D54" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E54" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="F54" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
+        <v>391</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
       <c r="D55" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="E55" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I55" t="s">
+        <v>321</v>
+      </c>
+      <c r="J55" t="s">
+        <v>324</v>
+      </c>
+      <c r="K55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
+        <v>393</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" t="s">
-        <v>262</v>
-      </c>
       <c r="D56" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -3324,24 +3889,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
+        <v>394</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
       <c r="D57" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="E57" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="F57" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3350,50 +3915,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
+        <v>395</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
-        <v>264</v>
-      </c>
       <c r="D58" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="F58" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I58" t="s">
+        <v>324</v>
+      </c>
+      <c r="J58" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
+        <v>396</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
       <c r="D59" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="E59" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="F59" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3402,24 +3973,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
+        <v>397</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
-        <v>266</v>
-      </c>
       <c r="D60" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="E60" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="F60" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3428,76 +3999,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
+        <v>398</v>
+      </c>
+      <c r="C61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
-        <v>267</v>
-      </c>
       <c r="D61" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E61" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>441</v>
+        <v>320</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
+        <v>399</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="C62" t="s">
-        <v>268</v>
-      </c>
       <c r="D62" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E62" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="F62" t="s">
-        <v>442</v>
+        <v>320</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
+        <v>400</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
       <c r="D63" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="E63" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3506,154 +4077,160 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
+        <v>401</v>
+      </c>
+      <c r="C64" t="s">
         <v>170</v>
       </c>
-      <c r="C64" t="s">
-        <v>270</v>
-      </c>
       <c r="D64" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="E64" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="F64" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>402</v>
+      </c>
+      <c r="C65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
-        <v>271</v>
-      </c>
       <c r="D65" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E65" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="F65" t="s">
-        <v>443</v>
+        <v>320</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
+        <v>403</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="F66" t="s">
-        <v>444</v>
+        <v>320</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
+        <v>404</v>
+      </c>
+      <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="C67" t="s">
-        <v>273</v>
-      </c>
       <c r="D67" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E67" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F67" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
+        <v>405</v>
+      </c>
+      <c r="C68" t="s">
         <v>174</v>
       </c>
-      <c r="C68" t="s">
-        <v>274</v>
-      </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E68" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F68" t="s">
-        <v>445</v>
+        <v>320</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I68" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
+        <v>406</v>
+      </c>
+      <c r="C69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
-        <v>275</v>
-      </c>
       <c r="D69" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="E69" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="F69" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3662,24 +4239,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>407</v>
+      </c>
+      <c r="C70" t="s">
         <v>176</v>
       </c>
-      <c r="C70" t="s">
-        <v>276</v>
-      </c>
       <c r="D70" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="E70" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="F70" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3688,50 +4265,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
+        <v>408</v>
+      </c>
+      <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
       <c r="D71" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="F71" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
+        <v>409</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
       </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
       <c r="D72" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="E72" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="F72" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3740,24 +4317,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
+        <v>410</v>
+      </c>
+      <c r="C73" t="s">
         <v>179</v>
       </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
       <c r="D73" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F73" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -3766,24 +4343,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>411</v>
+      </c>
+      <c r="C74" t="s">
         <v>180</v>
       </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
       <c r="D74" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="E74" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="F74" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3792,154 +4369,166 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>412</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
       <c r="D75" t="s">
-        <v>312</v>
+        <v>413</v>
       </c>
       <c r="E75" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="F75" t="s">
-        <v>446</v>
+        <v>320</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>414</v>
+      </c>
+      <c r="C76" t="s">
         <v>182</v>
       </c>
-      <c r="C76" t="s">
-        <v>282</v>
-      </c>
       <c r="D76" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E76" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="F76" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>415</v>
+      </c>
+      <c r="C77" t="s">
         <v>183</v>
       </c>
-      <c r="C77" t="s">
-        <v>283</v>
-      </c>
       <c r="D77" t="s">
-        <v>312</v>
+        <v>416</v>
       </c>
       <c r="E77" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="F77" t="s">
-        <v>448</v>
+        <v>320</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I77" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
+        <v>417</v>
+      </c>
+      <c r="C78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="F78" t="s">
-        <v>449</v>
+        <v>320</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I78" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>418</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
-        <v>285</v>
-      </c>
       <c r="D79" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E79" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="F79" t="s">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I79" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>419</v>
+      </c>
+      <c r="C80" t="s">
         <v>186</v>
       </c>
-      <c r="C80" t="s">
-        <v>286</v>
-      </c>
       <c r="D80" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="E80" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="F80" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -3948,76 +4537,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>420</v>
+      </c>
+      <c r="C81" t="s">
         <v>187</v>
       </c>
-      <c r="C81" t="s">
-        <v>287</v>
-      </c>
       <c r="D81" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="E81" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="F81" t="s">
-        <v>451</v>
+        <v>320</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I81" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>421</v>
+      </c>
+      <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="C82" t="s">
-        <v>288</v>
-      </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E82" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="F82" t="s">
-        <v>452</v>
+        <v>320</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I82" t="s">
+        <v>321</v>
+      </c>
+      <c r="J82" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
+        <v>422</v>
+      </c>
+      <c r="C83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>289</v>
-      </c>
       <c r="D83" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="E83" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="F83" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -4026,24 +4624,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
+        <v>423</v>
+      </c>
+      <c r="C84" t="s">
         <v>190</v>
       </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
       <c r="D84" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="E84" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F84" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -4052,50 +4650,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
+        <v>424</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
-        <v>291</v>
-      </c>
       <c r="D85" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="F85" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
+        <v>425</v>
+      </c>
+      <c r="C86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>292</v>
-      </c>
       <c r="D86" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="E86" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="F86" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -4104,76 +4705,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
+        <v>426</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>293</v>
-      </c>
       <c r="D87" t="s">
-        <v>312</v>
+        <v>427</v>
       </c>
       <c r="E87" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="F87" t="s">
-        <v>453</v>
+        <v>320</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I87" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
+        <v>428</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
-        <v>294</v>
-      </c>
       <c r="D88" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E88" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="F88" t="s">
-        <v>454</v>
+        <v>320</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I88" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
+        <v>429</v>
+      </c>
+      <c r="C89" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
-        <v>295</v>
-      </c>
       <c r="D89" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="E89" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F89" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4182,24 +4789,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
+        <v>430</v>
+      </c>
+      <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>296</v>
-      </c>
       <c r="D90" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="E90" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F90" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4208,24 +4815,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
+        <v>431</v>
+      </c>
+      <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
       <c r="D91" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="E91" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="F91" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -4234,24 +4841,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
+        <v>432</v>
+      </c>
+      <c r="C92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
-        <v>298</v>
-      </c>
       <c r="D92" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="E92" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="F92" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -4260,24 +4867,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
+        <v>433</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
-        <v>299</v>
-      </c>
       <c r="D93" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="E93" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="F93" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4286,212 +4893,245 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
+        <v>434</v>
+      </c>
+      <c r="C94" t="s">
         <v>200</v>
-      </c>
-      <c r="C94" t="s">
-        <v>300</v>
       </c>
       <c r="D94" t="s">
         <v>312</v>
       </c>
       <c r="E94" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="F94" t="s">
-        <v>455</v>
+        <v>320</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
+        <v>435</v>
+      </c>
+      <c r="C95" t="s">
         <v>201</v>
       </c>
-      <c r="C95" t="s">
-        <v>301</v>
-      </c>
       <c r="D95" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E95" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="F95" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
+        <v>436</v>
+      </c>
+      <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
       <c r="D96" t="s">
-        <v>312</v>
+        <v>437</v>
       </c>
       <c r="E96" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="F96" t="s">
-        <v>456</v>
+        <v>320</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I96" t="s">
+        <v>321</v>
+      </c>
+      <c r="J96" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
+        <v>438</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
       <c r="D97" t="s">
-        <v>312</v>
+        <v>439</v>
       </c>
       <c r="E97" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="F97" t="s">
-        <v>457</v>
+        <v>320</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I97" t="s">
+        <v>321</v>
+      </c>
+      <c r="J97" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
+        <v>440</v>
+      </c>
+      <c r="C98" t="s">
         <v>204</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
       <c r="D98" t="s">
-        <v>312</v>
+        <v>441</v>
       </c>
       <c r="E98" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="F98" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I98" t="s">
+        <v>324</v>
+      </c>
+      <c r="J98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
+        <v>442</v>
+      </c>
+      <c r="C99" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
       <c r="D99" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="E99" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="F99" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="I99" t="s">
+        <v>321</v>
+      </c>
+      <c r="J99" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
+        <v>443</v>
+      </c>
+      <c r="C100" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
-        <v>306</v>
-      </c>
       <c r="D100" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="E100" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="F100" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I100" t="s">
+        <v>321</v>
+      </c>
+      <c r="J100" t="s">
+        <v>324</v>
+      </c>
+      <c r="K100" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
+        <v>444</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
-        <v>307</v>
-      </c>
       <c r="D101" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E101" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="F101" t="s">
-        <v>459</v>
+        <v>320</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>461</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
